--- a/サンプルアプリケーション/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/リクエスト一覧_A1_プロジェクト管理システム.xlsx
+++ b/サンプルアプリケーション/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/リクエスト一覧_A1_プロジェクト管理システム.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="15" windowWidth="21225" windowHeight="12750" tabRatio="822" activeTab="3"/>
+    <workbookView xWindow="3495" yWindow="15" windowWidth="21225" windowHeight="12750" tabRatio="822"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="28" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="1" sheetId="27" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AL$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$AL$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>PJ名</t>
   </si>
@@ -260,130 +260,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>プロジェクト検索：初期表示</t>
-    <rPh sb="9" eb="11">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>プロジェクト担当者紐づけ</t>
-    <rPh sb="6" eb="8">
-      <t>タントウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ヒモ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>A103</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>担当者検索：初期表示</t>
-    <rPh sb="6" eb="8">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>A104</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>ユーザ別従事プロジェクト抽出</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>ユーザ別従事プロジェクト抽出指示：初期表示</t>
-    <rPh sb="3" eb="4">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジュウジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>チュウシュツ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シジ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>ユーザ別従事プロジェクト抽出指示：登録処理</t>
-    <rPh sb="3" eb="4">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジュウジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>チュウシュツ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>ユーザ別従事プロジェクト抽出指示検索：検索処理</t>
-    <rPh sb="21" eb="23">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>A105</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>プロジェクト情報一括</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>プロジェクト一括登録：初期表示</t>
-    <rPh sb="6" eb="8">
-      <t>イッカツ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>プロジェクト一括登録：登録処理</t>
-    <rPh sb="6" eb="8">
-      <t>イッカツ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>URL一覧</t>
     <phoneticPr fontId="29"/>
   </si>
@@ -419,62 +295,11 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>プロジェクト更新：初期表示画面へ戻る</t>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>担当者検索：検索処理</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>ユーザ別従事プロジェクト抽出指示検索：初期表示</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>プロジェクト登録：確認処理</t>
     <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>プロジェクト登録：登録処理</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>プロジェクト更新：初期表示</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>プロジェクト更新：確認処理</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>プロジェクト削除：確認処理</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>プロジェクト削除：削除処理</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>プロジェクト検索：検索処理</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>プロジェクト詳細：検索処理</t>
     <phoneticPr fontId="9"/>
   </si>
   <si>
@@ -528,77 +353,12 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>プロジェクト更新：更新処理</t>
-    <rPh sb="11" eb="13">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>/</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>プロジェクト更新：更新完了表示</t>
-    <rPh sb="11" eb="13">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>プロジェクト登録：登録完了表示</t>
     <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>ユーザ別従事プロジェクト抽出指示：登録完了表示</t>
-    <rPh sb="3" eb="4">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジュウジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>チュウシュツ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>プロジェクト一括登録：登録完了表示</t>
-    <rPh sb="6" eb="8">
-      <t>イッカツ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="9"/>
@@ -616,33 +376,6 @@
     <t>/app/project/backRegistration</t>
   </si>
   <si>
-    <t>/app/project/update</t>
-  </si>
-  <si>
-    <t>/app/project/confirmUpdate</t>
-  </si>
-  <si>
-    <t>/app/project/completionUpdate</t>
-  </si>
-  <si>
-    <t>/app/project/backUpdate</t>
-  </si>
-  <si>
-    <t>/app/project/confirmDelete</t>
-  </si>
-  <si>
-    <t>/app/project/delete</t>
-  </si>
-  <si>
-    <t>/app/project/search</t>
-  </si>
-  <si>
-    <t>/app/project/list</t>
-  </si>
-  <si>
-    <t>/app/project/show/${projectId}</t>
-  </si>
-  <si>
     <t>/app/login</t>
     <phoneticPr fontId="9"/>
   </si>
@@ -652,31 +385,6 @@
   </si>
   <si>
     <t>/app/project/register</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>/app/personnel/search</t>
-  </si>
-  <si>
-    <t>/app/personnel/list</t>
-  </si>
-  <si>
-    <t>/app/projectbyuser/register</t>
-  </si>
-  <si>
-    <t>/app/projectbyuser/completionRegistration</t>
-  </si>
-  <si>
-    <t>/app/projectbyuser/search</t>
-  </si>
-  <si>
-    <t>/app/projectbyuser/list</t>
-  </si>
-  <si>
-    <t>/app/projectbulk/register</t>
-  </si>
-  <si>
-    <t>/app/projectbulk/completionRegistration</t>
     <phoneticPr fontId="9"/>
   </si>
 </sst>
@@ -1528,7 +1236,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1716,354 +1424,327 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2072,24 +1753,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -2904,7 +2567,7 @@
   </sheetPr>
   <dimension ref="A1:S513"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2958,12 +2621,12 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="83">
+      <c r="I25" s="81">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>43630</v>
       </c>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="3"/>
@@ -3561,57 +3224,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121" t="s">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="128" t="s">
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="137" t="s">
-        <v>54</v>
-      </c>
-      <c r="T1" s="138"/>
-      <c r="U1" s="138"/>
-      <c r="V1" s="138"/>
-      <c r="W1" s="138"/>
-      <c r="X1" s="138"/>
-      <c r="Y1" s="138"/>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="118" t="s">
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="135" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" s="136"/>
+      <c r="U1" s="136"/>
+      <c r="V1" s="136"/>
+      <c r="W1" s="136"/>
+      <c r="X1" s="136"/>
+      <c r="Y1" s="136"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="146" t="str">
+      <c r="AB1" s="118"/>
+      <c r="AC1" s="144" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="111">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="109">
         <f>IF(D8="","",D8)</f>
         <v>43630</v>
       </c>
-      <c r="AH1" s="112"/>
-      <c r="AI1" s="113"/>
+      <c r="AH1" s="110"/>
+      <c r="AI1" s="111"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -3619,53 +3282,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121" t="s">
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
-      <c r="W2" s="141"/>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="142"/>
-      <c r="AA2" s="118" t="s">
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="139"/>
+      <c r="U2" s="139"/>
+      <c r="V2" s="139"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="120"/>
-      <c r="AC2" s="124" t="str">
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="122" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="125"/>
-      <c r="AE2" s="125"/>
-      <c r="AF2" s="126"/>
-      <c r="AG2" s="111" t="str">
+      <c r="AD2" s="123"/>
+      <c r="AE2" s="123"/>
+      <c r="AF2" s="124"/>
+      <c r="AG2" s="109" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="112"/>
-      <c r="AI2" s="113"/>
+      <c r="AH2" s="110"/>
+      <c r="AI2" s="111"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -3673,45 +3336,45 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="149" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="144"/>
-      <c r="U3" s="144"/>
-      <c r="V3" s="144"/>
-      <c r="W3" s="144"/>
-      <c r="X3" s="144"/>
-      <c r="Y3" s="144"/>
-      <c r="Z3" s="145"/>
-      <c r="AA3" s="118"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="146"/>
-      <c r="AD3" s="147"/>
-      <c r="AE3" s="147"/>
-      <c r="AF3" s="148"/>
-      <c r="AG3" s="111"/>
-      <c r="AH3" s="112"/>
-      <c r="AI3" s="113"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="142"/>
+      <c r="V3" s="142"/>
+      <c r="W3" s="142"/>
+      <c r="X3" s="142"/>
+      <c r="Y3" s="142"/>
+      <c r="Z3" s="143"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="118"/>
+      <c r="AC3" s="144"/>
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="110"/>
+      <c r="AI3" s="111"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -3748,1028 +3411,1028 @@
       <c r="A7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="114" t="s">
+      <c r="C7" s="113"/>
+      <c r="D7" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="116"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="114" t="s">
+      <c r="E7" s="114"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="116"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="117" t="s">
+      <c r="H7" s="114"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="114" t="s">
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="113"/>
+      <c r="Q7" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="116"/>
-      <c r="S7" s="116"/>
-      <c r="T7" s="116"/>
-      <c r="U7" s="116"/>
-      <c r="V7" s="116"/>
-      <c r="W7" s="116"/>
-      <c r="X7" s="116"/>
-      <c r="Y7" s="116"/>
-      <c r="Z7" s="116"/>
-      <c r="AA7" s="116"/>
-      <c r="AB7" s="116"/>
-      <c r="AC7" s="116"/>
-      <c r="AD7" s="116"/>
-      <c r="AE7" s="115"/>
-      <c r="AF7" s="114" t="s">
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="114"/>
+      <c r="AA7" s="114"/>
+      <c r="AB7" s="114"/>
+      <c r="AC7" s="114"/>
+      <c r="AD7" s="114"/>
+      <c r="AE7" s="113"/>
+      <c r="AF7" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="116"/>
-      <c r="AH7" s="116"/>
-      <c r="AI7" s="115"/>
+      <c r="AG7" s="114"/>
+      <c r="AH7" s="114"/>
+      <c r="AI7" s="113"/>
     </row>
     <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="76">
         <v>1</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="99">
+      <c r="C8" s="96"/>
+      <c r="D8" s="97">
         <v>43630</v>
       </c>
-      <c r="E8" s="100"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="102" t="s">
+      <c r="E8" s="98"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="103"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="105" t="s">
+      <c r="H8" s="101"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="108" t="s">
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="R8" s="109"/>
-      <c r="S8" s="109"/>
-      <c r="T8" s="109"/>
-      <c r="U8" s="109"/>
-      <c r="V8" s="109"/>
-      <c r="W8" s="109"/>
-      <c r="X8" s="109"/>
-      <c r="Y8" s="109"/>
-      <c r="Z8" s="109"/>
-      <c r="AA8" s="109"/>
-      <c r="AB8" s="109"/>
-      <c r="AC8" s="109"/>
-      <c r="AD8" s="109"/>
-      <c r="AE8" s="110"/>
-      <c r="AF8" s="105" t="s">
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
+      <c r="Y8" s="107"/>
+      <c r="Z8" s="107"/>
+      <c r="AA8" s="107"/>
+      <c r="AB8" s="107"/>
+      <c r="AC8" s="107"/>
+      <c r="AD8" s="107"/>
+      <c r="AE8" s="108"/>
+      <c r="AF8" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="AG8" s="106"/>
-      <c r="AH8" s="106"/>
-      <c r="AI8" s="107"/>
+      <c r="AG8" s="104"/>
+      <c r="AH8" s="104"/>
+      <c r="AI8" s="105"/>
     </row>
     <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="74"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="94"/>
-      <c r="T9" s="94"/>
-      <c r="U9" s="94"/>
-      <c r="V9" s="94"/>
-      <c r="W9" s="94"/>
-      <c r="X9" s="94"/>
-      <c r="Y9" s="94"/>
-      <c r="Z9" s="94"/>
-      <c r="AA9" s="94"/>
-      <c r="AB9" s="94"/>
-      <c r="AC9" s="94"/>
-      <c r="AD9" s="94"/>
-      <c r="AE9" s="95"/>
-      <c r="AF9" s="90"/>
-      <c r="AG9" s="91"/>
-      <c r="AH9" s="91"/>
-      <c r="AI9" s="92"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="92"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="92"/>
+      <c r="Y9" s="92"/>
+      <c r="Z9" s="92"/>
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="92"/>
+      <c r="AD9" s="92"/>
+      <c r="AE9" s="93"/>
+      <c r="AF9" s="88"/>
+      <c r="AG9" s="89"/>
+      <c r="AH9" s="89"/>
+      <c r="AI9" s="90"/>
     </row>
     <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="74"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="94"/>
-      <c r="T10" s="94"/>
-      <c r="U10" s="94"/>
-      <c r="V10" s="94"/>
-      <c r="W10" s="94"/>
-      <c r="X10" s="94"/>
-      <c r="Y10" s="94"/>
-      <c r="Z10" s="94"/>
-      <c r="AA10" s="94"/>
-      <c r="AB10" s="94"/>
-      <c r="AC10" s="94"/>
-      <c r="AD10" s="94"/>
-      <c r="AE10" s="95"/>
-      <c r="AF10" s="90"/>
-      <c r="AG10" s="91"/>
-      <c r="AH10" s="91"/>
-      <c r="AI10" s="92"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="92"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="92"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="92"/>
+      <c r="Y10" s="92"/>
+      <c r="Z10" s="92"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="92"/>
+      <c r="AD10" s="92"/>
+      <c r="AE10" s="93"/>
+      <c r="AF10" s="88"/>
+      <c r="AG10" s="89"/>
+      <c r="AH10" s="89"/>
+      <c r="AI10" s="90"/>
     </row>
     <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="74"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="94"/>
-      <c r="T11" s="94"/>
-      <c r="U11" s="94"/>
-      <c r="V11" s="94"/>
-      <c r="W11" s="94"/>
-      <c r="X11" s="94"/>
-      <c r="Y11" s="94"/>
-      <c r="Z11" s="94"/>
-      <c r="AA11" s="94"/>
-      <c r="AB11" s="94"/>
-      <c r="AC11" s="94"/>
-      <c r="AD11" s="94"/>
-      <c r="AE11" s="95"/>
-      <c r="AF11" s="90"/>
-      <c r="AG11" s="91"/>
-      <c r="AH11" s="91"/>
-      <c r="AI11" s="92"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="92"/>
+      <c r="T11" s="92"/>
+      <c r="U11" s="92"/>
+      <c r="V11" s="92"/>
+      <c r="W11" s="92"/>
+      <c r="X11" s="92"/>
+      <c r="Y11" s="92"/>
+      <c r="Z11" s="92"/>
+      <c r="AA11" s="92"/>
+      <c r="AB11" s="92"/>
+      <c r="AC11" s="92"/>
+      <c r="AD11" s="92"/>
+      <c r="AE11" s="93"/>
+      <c r="AF11" s="88"/>
+      <c r="AG11" s="89"/>
+      <c r="AH11" s="89"/>
+      <c r="AI11" s="90"/>
     </row>
     <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="74"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="91"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="94"/>
-      <c r="S12" s="94"/>
-      <c r="T12" s="94"/>
-      <c r="U12" s="94"/>
-      <c r="V12" s="94"/>
-      <c r="W12" s="94"/>
-      <c r="X12" s="94"/>
-      <c r="Y12" s="94"/>
-      <c r="Z12" s="94"/>
-      <c r="AA12" s="94"/>
-      <c r="AB12" s="94"/>
-      <c r="AC12" s="94"/>
-      <c r="AD12" s="94"/>
-      <c r="AE12" s="95"/>
-      <c r="AF12" s="90"/>
-      <c r="AG12" s="91"/>
-      <c r="AH12" s="91"/>
-      <c r="AI12" s="92"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="92"/>
+      <c r="S12" s="92"/>
+      <c r="T12" s="92"/>
+      <c r="U12" s="92"/>
+      <c r="V12" s="92"/>
+      <c r="W12" s="92"/>
+      <c r="X12" s="92"/>
+      <c r="Y12" s="92"/>
+      <c r="Z12" s="92"/>
+      <c r="AA12" s="92"/>
+      <c r="AB12" s="92"/>
+      <c r="AC12" s="92"/>
+      <c r="AD12" s="92"/>
+      <c r="AE12" s="93"/>
+      <c r="AF12" s="88"/>
+      <c r="AG12" s="89"/>
+      <c r="AH12" s="89"/>
+      <c r="AI12" s="90"/>
     </row>
     <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="74"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="94"/>
-      <c r="S13" s="94"/>
-      <c r="T13" s="94"/>
-      <c r="U13" s="94"/>
-      <c r="V13" s="94"/>
-      <c r="W13" s="94"/>
-      <c r="X13" s="94"/>
-      <c r="Y13" s="94"/>
-      <c r="Z13" s="94"/>
-      <c r="AA13" s="94"/>
-      <c r="AB13" s="94"/>
-      <c r="AC13" s="94"/>
-      <c r="AD13" s="94"/>
-      <c r="AE13" s="95"/>
-      <c r="AF13" s="90"/>
-      <c r="AG13" s="91"/>
-      <c r="AH13" s="91"/>
-      <c r="AI13" s="92"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="92"/>
+      <c r="T13" s="92"/>
+      <c r="U13" s="92"/>
+      <c r="V13" s="92"/>
+      <c r="W13" s="92"/>
+      <c r="X13" s="92"/>
+      <c r="Y13" s="92"/>
+      <c r="Z13" s="92"/>
+      <c r="AA13" s="92"/>
+      <c r="AB13" s="92"/>
+      <c r="AC13" s="92"/>
+      <c r="AD13" s="92"/>
+      <c r="AE13" s="93"/>
+      <c r="AF13" s="88"/>
+      <c r="AG13" s="89"/>
+      <c r="AH13" s="89"/>
+      <c r="AI13" s="90"/>
     </row>
     <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="74"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
-      <c r="T14" s="94"/>
-      <c r="U14" s="94"/>
-      <c r="V14" s="94"/>
-      <c r="W14" s="94"/>
-      <c r="X14" s="94"/>
-      <c r="Y14" s="94"/>
-      <c r="Z14" s="94"/>
-      <c r="AA14" s="94"/>
-      <c r="AB14" s="94"/>
-      <c r="AC14" s="94"/>
-      <c r="AD14" s="94"/>
-      <c r="AE14" s="95"/>
-      <c r="AF14" s="90"/>
-      <c r="AG14" s="91"/>
-      <c r="AH14" s="91"/>
-      <c r="AI14" s="92"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="92"/>
+      <c r="T14" s="92"/>
+      <c r="U14" s="92"/>
+      <c r="V14" s="92"/>
+      <c r="W14" s="92"/>
+      <c r="X14" s="92"/>
+      <c r="Y14" s="92"/>
+      <c r="Z14" s="92"/>
+      <c r="AA14" s="92"/>
+      <c r="AB14" s="92"/>
+      <c r="AC14" s="92"/>
+      <c r="AD14" s="92"/>
+      <c r="AE14" s="93"/>
+      <c r="AF14" s="88"/>
+      <c r="AG14" s="89"/>
+      <c r="AH14" s="89"/>
+      <c r="AI14" s="90"/>
     </row>
     <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="74"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="94"/>
-      <c r="T15" s="94"/>
-      <c r="U15" s="94"/>
-      <c r="V15" s="94"/>
-      <c r="W15" s="94"/>
-      <c r="X15" s="94"/>
-      <c r="Y15" s="94"/>
-      <c r="Z15" s="94"/>
-      <c r="AA15" s="94"/>
-      <c r="AB15" s="94"/>
-      <c r="AC15" s="94"/>
-      <c r="AD15" s="94"/>
-      <c r="AE15" s="95"/>
-      <c r="AF15" s="90"/>
-      <c r="AG15" s="91"/>
-      <c r="AH15" s="91"/>
-      <c r="AI15" s="92"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="92"/>
+      <c r="S15" s="92"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="92"/>
+      <c r="V15" s="92"/>
+      <c r="W15" s="92"/>
+      <c r="X15" s="92"/>
+      <c r="Y15" s="92"/>
+      <c r="Z15" s="92"/>
+      <c r="AA15" s="92"/>
+      <c r="AB15" s="92"/>
+      <c r="AC15" s="92"/>
+      <c r="AD15" s="92"/>
+      <c r="AE15" s="93"/>
+      <c r="AF15" s="88"/>
+      <c r="AG15" s="89"/>
+      <c r="AH15" s="89"/>
+      <c r="AI15" s="90"/>
     </row>
     <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="74"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="93"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
-      <c r="T16" s="94"/>
-      <c r="U16" s="94"/>
-      <c r="V16" s="94"/>
-      <c r="W16" s="94"/>
-      <c r="X16" s="94"/>
-      <c r="Y16" s="94"/>
-      <c r="Z16" s="94"/>
-      <c r="AA16" s="94"/>
-      <c r="AB16" s="94"/>
-      <c r="AC16" s="94"/>
-      <c r="AD16" s="94"/>
-      <c r="AE16" s="95"/>
-      <c r="AF16" s="90"/>
-      <c r="AG16" s="91"/>
-      <c r="AH16" s="91"/>
-      <c r="AI16" s="92"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="92"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="92"/>
+      <c r="W16" s="92"/>
+      <c r="X16" s="92"/>
+      <c r="Y16" s="92"/>
+      <c r="Z16" s="92"/>
+      <c r="AA16" s="92"/>
+      <c r="AB16" s="92"/>
+      <c r="AC16" s="92"/>
+      <c r="AD16" s="92"/>
+      <c r="AE16" s="93"/>
+      <c r="AF16" s="88"/>
+      <c r="AG16" s="89"/>
+      <c r="AH16" s="89"/>
+      <c r="AI16" s="90"/>
     </row>
     <row r="17" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="74"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="92"/>
-      <c r="Q17" s="93"/>
-      <c r="R17" s="94"/>
-      <c r="S17" s="94"/>
-      <c r="T17" s="94"/>
-      <c r="U17" s="94"/>
-      <c r="V17" s="94"/>
-      <c r="W17" s="94"/>
-      <c r="X17" s="94"/>
-      <c r="Y17" s="94"/>
-      <c r="Z17" s="94"/>
-      <c r="AA17" s="94"/>
-      <c r="AB17" s="94"/>
-      <c r="AC17" s="94"/>
-      <c r="AD17" s="94"/>
-      <c r="AE17" s="95"/>
-      <c r="AF17" s="90"/>
-      <c r="AG17" s="91"/>
-      <c r="AH17" s="91"/>
-      <c r="AI17" s="92"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="92"/>
+      <c r="S17" s="92"/>
+      <c r="T17" s="92"/>
+      <c r="U17" s="92"/>
+      <c r="V17" s="92"/>
+      <c r="W17" s="92"/>
+      <c r="X17" s="92"/>
+      <c r="Y17" s="92"/>
+      <c r="Z17" s="92"/>
+      <c r="AA17" s="92"/>
+      <c r="AB17" s="92"/>
+      <c r="AC17" s="92"/>
+      <c r="AD17" s="92"/>
+      <c r="AE17" s="93"/>
+      <c r="AF17" s="88"/>
+      <c r="AG17" s="89"/>
+      <c r="AH17" s="89"/>
+      <c r="AI17" s="90"/>
     </row>
     <row r="18" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="74"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="91"/>
-      <c r="P18" s="92"/>
-      <c r="Q18" s="93"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="94"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="94"/>
-      <c r="V18" s="94"/>
-      <c r="W18" s="94"/>
-      <c r="X18" s="94"/>
-      <c r="Y18" s="94"/>
-      <c r="Z18" s="94"/>
-      <c r="AA18" s="94"/>
-      <c r="AB18" s="94"/>
-      <c r="AC18" s="94"/>
-      <c r="AD18" s="94"/>
-      <c r="AE18" s="95"/>
-      <c r="AF18" s="90"/>
-      <c r="AG18" s="91"/>
-      <c r="AH18" s="91"/>
-      <c r="AI18" s="92"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="92"/>
+      <c r="T18" s="92"/>
+      <c r="U18" s="92"/>
+      <c r="V18" s="92"/>
+      <c r="W18" s="92"/>
+      <c r="X18" s="92"/>
+      <c r="Y18" s="92"/>
+      <c r="Z18" s="92"/>
+      <c r="AA18" s="92"/>
+      <c r="AB18" s="92"/>
+      <c r="AC18" s="92"/>
+      <c r="AD18" s="92"/>
+      <c r="AE18" s="93"/>
+      <c r="AF18" s="88"/>
+      <c r="AG18" s="89"/>
+      <c r="AH18" s="89"/>
+      <c r="AI18" s="90"/>
     </row>
     <row r="19" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="74"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="91"/>
-      <c r="P19" s="92"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="94"/>
-      <c r="S19" s="94"/>
-      <c r="T19" s="94"/>
-      <c r="U19" s="94"/>
-      <c r="V19" s="94"/>
-      <c r="W19" s="94"/>
-      <c r="X19" s="94"/>
-      <c r="Y19" s="94"/>
-      <c r="Z19" s="94"/>
-      <c r="AA19" s="94"/>
-      <c r="AB19" s="94"/>
-      <c r="AC19" s="94"/>
-      <c r="AD19" s="94"/>
-      <c r="AE19" s="95"/>
-      <c r="AF19" s="90"/>
-      <c r="AG19" s="91"/>
-      <c r="AH19" s="91"/>
-      <c r="AI19" s="92"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="91"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="92"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="92"/>
+      <c r="V19" s="92"/>
+      <c r="W19" s="92"/>
+      <c r="X19" s="92"/>
+      <c r="Y19" s="92"/>
+      <c r="Z19" s="92"/>
+      <c r="AA19" s="92"/>
+      <c r="AB19" s="92"/>
+      <c r="AC19" s="92"/>
+      <c r="AD19" s="92"/>
+      <c r="AE19" s="93"/>
+      <c r="AF19" s="88"/>
+      <c r="AG19" s="89"/>
+      <c r="AH19" s="89"/>
+      <c r="AI19" s="90"/>
     </row>
     <row r="20" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="74"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="91"/>
-      <c r="P20" s="92"/>
-      <c r="Q20" s="93"/>
-      <c r="R20" s="94"/>
-      <c r="S20" s="94"/>
-      <c r="T20" s="94"/>
-      <c r="U20" s="94"/>
-      <c r="V20" s="94"/>
-      <c r="W20" s="94"/>
-      <c r="X20" s="94"/>
-      <c r="Y20" s="94"/>
-      <c r="Z20" s="94"/>
-      <c r="AA20" s="94"/>
-      <c r="AB20" s="94"/>
-      <c r="AC20" s="94"/>
-      <c r="AD20" s="94"/>
-      <c r="AE20" s="95"/>
-      <c r="AF20" s="90"/>
-      <c r="AG20" s="91"/>
-      <c r="AH20" s="91"/>
-      <c r="AI20" s="92"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="89"/>
+      <c r="P20" s="90"/>
+      <c r="Q20" s="91"/>
+      <c r="R20" s="92"/>
+      <c r="S20" s="92"/>
+      <c r="T20" s="92"/>
+      <c r="U20" s="92"/>
+      <c r="V20" s="92"/>
+      <c r="W20" s="92"/>
+      <c r="X20" s="92"/>
+      <c r="Y20" s="92"/>
+      <c r="Z20" s="92"/>
+      <c r="AA20" s="92"/>
+      <c r="AB20" s="92"/>
+      <c r="AC20" s="92"/>
+      <c r="AD20" s="92"/>
+      <c r="AE20" s="93"/>
+      <c r="AF20" s="88"/>
+      <c r="AG20" s="89"/>
+      <c r="AH20" s="89"/>
+      <c r="AI20" s="90"/>
     </row>
     <row r="21" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="74"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="92"/>
-      <c r="Q21" s="93"/>
-      <c r="R21" s="94"/>
-      <c r="S21" s="94"/>
-      <c r="T21" s="94"/>
-      <c r="U21" s="94"/>
-      <c r="V21" s="94"/>
-      <c r="W21" s="94"/>
-      <c r="X21" s="94"/>
-      <c r="Y21" s="94"/>
-      <c r="Z21" s="94"/>
-      <c r="AA21" s="94"/>
-      <c r="AB21" s="94"/>
-      <c r="AC21" s="94"/>
-      <c r="AD21" s="94"/>
-      <c r="AE21" s="95"/>
-      <c r="AF21" s="90"/>
-      <c r="AG21" s="91"/>
-      <c r="AH21" s="91"/>
-      <c r="AI21" s="92"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="92"/>
+      <c r="S21" s="92"/>
+      <c r="T21" s="92"/>
+      <c r="U21" s="92"/>
+      <c r="V21" s="92"/>
+      <c r="W21" s="92"/>
+      <c r="X21" s="92"/>
+      <c r="Y21" s="92"/>
+      <c r="Z21" s="92"/>
+      <c r="AA21" s="92"/>
+      <c r="AB21" s="92"/>
+      <c r="AC21" s="92"/>
+      <c r="AD21" s="92"/>
+      <c r="AE21" s="93"/>
+      <c r="AF21" s="88"/>
+      <c r="AG21" s="89"/>
+      <c r="AH21" s="89"/>
+      <c r="AI21" s="90"/>
     </row>
     <row r="22" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="74"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="91"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
-      <c r="P22" s="92"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="94"/>
-      <c r="S22" s="94"/>
-      <c r="T22" s="94"/>
-      <c r="U22" s="94"/>
-      <c r="V22" s="94"/>
-      <c r="W22" s="94"/>
-      <c r="X22" s="94"/>
-      <c r="Y22" s="94"/>
-      <c r="Z22" s="94"/>
-      <c r="AA22" s="94"/>
-      <c r="AB22" s="94"/>
-      <c r="AC22" s="94"/>
-      <c r="AD22" s="94"/>
-      <c r="AE22" s="95"/>
-      <c r="AF22" s="90"/>
-      <c r="AG22" s="91"/>
-      <c r="AH22" s="91"/>
-      <c r="AI22" s="92"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="91"/>
+      <c r="R22" s="92"/>
+      <c r="S22" s="92"/>
+      <c r="T22" s="92"/>
+      <c r="U22" s="92"/>
+      <c r="V22" s="92"/>
+      <c r="W22" s="92"/>
+      <c r="X22" s="92"/>
+      <c r="Y22" s="92"/>
+      <c r="Z22" s="92"/>
+      <c r="AA22" s="92"/>
+      <c r="AB22" s="92"/>
+      <c r="AC22" s="92"/>
+      <c r="AD22" s="92"/>
+      <c r="AE22" s="93"/>
+      <c r="AF22" s="88"/>
+      <c r="AG22" s="89"/>
+      <c r="AH22" s="89"/>
+      <c r="AI22" s="90"/>
     </row>
     <row r="23" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="74"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="92"/>
-      <c r="Q23" s="93"/>
-      <c r="R23" s="94"/>
-      <c r="S23" s="94"/>
-      <c r="T23" s="94"/>
-      <c r="U23" s="94"/>
-      <c r="V23" s="94"/>
-      <c r="W23" s="94"/>
-      <c r="X23" s="94"/>
-      <c r="Y23" s="94"/>
-      <c r="Z23" s="94"/>
-      <c r="AA23" s="94"/>
-      <c r="AB23" s="94"/>
-      <c r="AC23" s="94"/>
-      <c r="AD23" s="94"/>
-      <c r="AE23" s="95"/>
-      <c r="AF23" s="90"/>
-      <c r="AG23" s="91"/>
-      <c r="AH23" s="91"/>
-      <c r="AI23" s="92"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="90"/>
+      <c r="Q23" s="91"/>
+      <c r="R23" s="92"/>
+      <c r="S23" s="92"/>
+      <c r="T23" s="92"/>
+      <c r="U23" s="92"/>
+      <c r="V23" s="92"/>
+      <c r="W23" s="92"/>
+      <c r="X23" s="92"/>
+      <c r="Y23" s="92"/>
+      <c r="Z23" s="92"/>
+      <c r="AA23" s="92"/>
+      <c r="AB23" s="92"/>
+      <c r="AC23" s="92"/>
+      <c r="AD23" s="92"/>
+      <c r="AE23" s="93"/>
+      <c r="AF23" s="88"/>
+      <c r="AG23" s="89"/>
+      <c r="AH23" s="89"/>
+      <c r="AI23" s="90"/>
     </row>
     <row r="24" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="74"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="91"/>
-      <c r="P24" s="92"/>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="94"/>
-      <c r="S24" s="94"/>
-      <c r="T24" s="94"/>
-      <c r="U24" s="94"/>
-      <c r="V24" s="94"/>
-      <c r="W24" s="94"/>
-      <c r="X24" s="94"/>
-      <c r="Y24" s="94"/>
-      <c r="Z24" s="94"/>
-      <c r="AA24" s="94"/>
-      <c r="AB24" s="94"/>
-      <c r="AC24" s="94"/>
-      <c r="AD24" s="94"/>
-      <c r="AE24" s="95"/>
-      <c r="AF24" s="90"/>
-      <c r="AG24" s="91"/>
-      <c r="AH24" s="91"/>
-      <c r="AI24" s="92"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="91"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="92"/>
+      <c r="T24" s="92"/>
+      <c r="U24" s="92"/>
+      <c r="V24" s="92"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="92"/>
+      <c r="Y24" s="92"/>
+      <c r="Z24" s="92"/>
+      <c r="AA24" s="92"/>
+      <c r="AB24" s="92"/>
+      <c r="AC24" s="92"/>
+      <c r="AD24" s="92"/>
+      <c r="AE24" s="93"/>
+      <c r="AF24" s="88"/>
+      <c r="AG24" s="89"/>
+      <c r="AH24" s="89"/>
+      <c r="AI24" s="90"/>
     </row>
     <row r="25" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="74"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="93"/>
-      <c r="R25" s="94"/>
-      <c r="S25" s="94"/>
-      <c r="T25" s="94"/>
-      <c r="U25" s="94"/>
-      <c r="V25" s="94"/>
-      <c r="W25" s="94"/>
-      <c r="X25" s="94"/>
-      <c r="Y25" s="94"/>
-      <c r="Z25" s="94"/>
-      <c r="AA25" s="94"/>
-      <c r="AB25" s="94"/>
-      <c r="AC25" s="94"/>
-      <c r="AD25" s="94"/>
-      <c r="AE25" s="95"/>
-      <c r="AF25" s="90"/>
-      <c r="AG25" s="91"/>
-      <c r="AH25" s="91"/>
-      <c r="AI25" s="92"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="92"/>
+      <c r="S25" s="92"/>
+      <c r="T25" s="92"/>
+      <c r="U25" s="92"/>
+      <c r="V25" s="92"/>
+      <c r="W25" s="92"/>
+      <c r="X25" s="92"/>
+      <c r="Y25" s="92"/>
+      <c r="Z25" s="92"/>
+      <c r="AA25" s="92"/>
+      <c r="AB25" s="92"/>
+      <c r="AC25" s="92"/>
+      <c r="AD25" s="92"/>
+      <c r="AE25" s="93"/>
+      <c r="AF25" s="88"/>
+      <c r="AG25" s="89"/>
+      <c r="AH25" s="89"/>
+      <c r="AI25" s="90"/>
     </row>
     <row r="26" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="74"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="91"/>
-      <c r="N26" s="91"/>
-      <c r="O26" s="91"/>
-      <c r="P26" s="92"/>
-      <c r="Q26" s="93"/>
-      <c r="R26" s="94"/>
-      <c r="S26" s="94"/>
-      <c r="T26" s="94"/>
-      <c r="U26" s="94"/>
-      <c r="V26" s="94"/>
-      <c r="W26" s="94"/>
-      <c r="X26" s="94"/>
-      <c r="Y26" s="94"/>
-      <c r="Z26" s="94"/>
-      <c r="AA26" s="94"/>
-      <c r="AB26" s="94"/>
-      <c r="AC26" s="94"/>
-      <c r="AD26" s="94"/>
-      <c r="AE26" s="95"/>
-      <c r="AF26" s="90"/>
-      <c r="AG26" s="91"/>
-      <c r="AH26" s="91"/>
-      <c r="AI26" s="92"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="90"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="92"/>
+      <c r="T26" s="92"/>
+      <c r="U26" s="92"/>
+      <c r="V26" s="92"/>
+      <c r="W26" s="92"/>
+      <c r="X26" s="92"/>
+      <c r="Y26" s="92"/>
+      <c r="Z26" s="92"/>
+      <c r="AA26" s="92"/>
+      <c r="AB26" s="92"/>
+      <c r="AC26" s="92"/>
+      <c r="AD26" s="92"/>
+      <c r="AE26" s="93"/>
+      <c r="AF26" s="88"/>
+      <c r="AG26" s="89"/>
+      <c r="AH26" s="89"/>
+      <c r="AI26" s="90"/>
     </row>
     <row r="27" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="74"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="92"/>
-      <c r="Q27" s="93"/>
-      <c r="R27" s="94"/>
-      <c r="S27" s="94"/>
-      <c r="T27" s="94"/>
-      <c r="U27" s="94"/>
-      <c r="V27" s="94"/>
-      <c r="W27" s="94"/>
-      <c r="X27" s="94"/>
-      <c r="Y27" s="94"/>
-      <c r="Z27" s="94"/>
-      <c r="AA27" s="94"/>
-      <c r="AB27" s="94"/>
-      <c r="AC27" s="94"/>
-      <c r="AD27" s="94"/>
-      <c r="AE27" s="95"/>
-      <c r="AF27" s="90"/>
-      <c r="AG27" s="91"/>
-      <c r="AH27" s="91"/>
-      <c r="AI27" s="92"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="89"/>
+      <c r="N27" s="89"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="90"/>
+      <c r="Q27" s="91"/>
+      <c r="R27" s="92"/>
+      <c r="S27" s="92"/>
+      <c r="T27" s="92"/>
+      <c r="U27" s="92"/>
+      <c r="V27" s="92"/>
+      <c r="W27" s="92"/>
+      <c r="X27" s="92"/>
+      <c r="Y27" s="92"/>
+      <c r="Z27" s="92"/>
+      <c r="AA27" s="92"/>
+      <c r="AB27" s="92"/>
+      <c r="AC27" s="92"/>
+      <c r="AD27" s="92"/>
+      <c r="AE27" s="93"/>
+      <c r="AF27" s="88"/>
+      <c r="AG27" s="89"/>
+      <c r="AH27" s="89"/>
+      <c r="AI27" s="90"/>
     </row>
     <row r="28" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="74"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="91"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="91"/>
-      <c r="P28" s="92"/>
-      <c r="Q28" s="93"/>
-      <c r="R28" s="94"/>
-      <c r="S28" s="94"/>
-      <c r="T28" s="94"/>
-      <c r="U28" s="94"/>
-      <c r="V28" s="94"/>
-      <c r="W28" s="94"/>
-      <c r="X28" s="94"/>
-      <c r="Y28" s="94"/>
-      <c r="Z28" s="94"/>
-      <c r="AA28" s="94"/>
-      <c r="AB28" s="94"/>
-      <c r="AC28" s="94"/>
-      <c r="AD28" s="94"/>
-      <c r="AE28" s="95"/>
-      <c r="AF28" s="90"/>
-      <c r="AG28" s="91"/>
-      <c r="AH28" s="91"/>
-      <c r="AI28" s="92"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="90"/>
+      <c r="Q28" s="91"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="92"/>
+      <c r="T28" s="92"/>
+      <c r="U28" s="92"/>
+      <c r="V28" s="92"/>
+      <c r="W28" s="92"/>
+      <c r="X28" s="92"/>
+      <c r="Y28" s="92"/>
+      <c r="Z28" s="92"/>
+      <c r="AA28" s="92"/>
+      <c r="AB28" s="92"/>
+      <c r="AC28" s="92"/>
+      <c r="AD28" s="92"/>
+      <c r="AE28" s="93"/>
+      <c r="AF28" s="88"/>
+      <c r="AG28" s="89"/>
+      <c r="AH28" s="89"/>
+      <c r="AI28" s="90"/>
     </row>
     <row r="29" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="74"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="91"/>
-      <c r="P29" s="92"/>
-      <c r="Q29" s="93"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="94"/>
-      <c r="T29" s="94"/>
-      <c r="U29" s="94"/>
-      <c r="V29" s="94"/>
-      <c r="W29" s="94"/>
-      <c r="X29" s="94"/>
-      <c r="Y29" s="94"/>
-      <c r="Z29" s="94"/>
-      <c r="AA29" s="94"/>
-      <c r="AB29" s="94"/>
-      <c r="AC29" s="94"/>
-      <c r="AD29" s="94"/>
-      <c r="AE29" s="95"/>
-      <c r="AF29" s="90"/>
-      <c r="AG29" s="91"/>
-      <c r="AH29" s="91"/>
-      <c r="AI29" s="92"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="89"/>
+      <c r="P29" s="90"/>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="92"/>
+      <c r="S29" s="92"/>
+      <c r="T29" s="92"/>
+      <c r="U29" s="92"/>
+      <c r="V29" s="92"/>
+      <c r="W29" s="92"/>
+      <c r="X29" s="92"/>
+      <c r="Y29" s="92"/>
+      <c r="Z29" s="92"/>
+      <c r="AA29" s="92"/>
+      <c r="AB29" s="92"/>
+      <c r="AC29" s="92"/>
+      <c r="AD29" s="92"/>
+      <c r="AE29" s="93"/>
+      <c r="AF29" s="88"/>
+      <c r="AG29" s="89"/>
+      <c r="AH29" s="89"/>
+      <c r="AI29" s="90"/>
     </row>
     <row r="30" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="74"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="91"/>
-      <c r="P30" s="92"/>
-      <c r="Q30" s="93"/>
-      <c r="R30" s="94"/>
-      <c r="S30" s="94"/>
-      <c r="T30" s="94"/>
-      <c r="U30" s="94"/>
-      <c r="V30" s="94"/>
-      <c r="W30" s="94"/>
-      <c r="X30" s="94"/>
-      <c r="Y30" s="94"/>
-      <c r="Z30" s="94"/>
-      <c r="AA30" s="94"/>
-      <c r="AB30" s="94"/>
-      <c r="AC30" s="94"/>
-      <c r="AD30" s="94"/>
-      <c r="AE30" s="95"/>
-      <c r="AF30" s="90"/>
-      <c r="AG30" s="91"/>
-      <c r="AH30" s="91"/>
-      <c r="AI30" s="92"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="90"/>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="92"/>
+      <c r="S30" s="92"/>
+      <c r="T30" s="92"/>
+      <c r="U30" s="92"/>
+      <c r="V30" s="92"/>
+      <c r="W30" s="92"/>
+      <c r="X30" s="92"/>
+      <c r="Y30" s="92"/>
+      <c r="Z30" s="92"/>
+      <c r="AA30" s="92"/>
+      <c r="AB30" s="92"/>
+      <c r="AC30" s="92"/>
+      <c r="AD30" s="92"/>
+      <c r="AE30" s="93"/>
+      <c r="AF30" s="88"/>
+      <c r="AG30" s="89"/>
+      <c r="AH30" s="89"/>
+      <c r="AI30" s="90"/>
     </row>
     <row r="31" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="74"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="91"/>
-      <c r="N31" s="91"/>
-      <c r="O31" s="91"/>
-      <c r="P31" s="92"/>
-      <c r="Q31" s="93"/>
-      <c r="R31" s="94"/>
-      <c r="S31" s="94"/>
-      <c r="T31" s="94"/>
-      <c r="U31" s="94"/>
-      <c r="V31" s="94"/>
-      <c r="W31" s="94"/>
-      <c r="X31" s="94"/>
-      <c r="Y31" s="94"/>
-      <c r="Z31" s="94"/>
-      <c r="AA31" s="94"/>
-      <c r="AB31" s="94"/>
-      <c r="AC31" s="94"/>
-      <c r="AD31" s="94"/>
-      <c r="AE31" s="95"/>
-      <c r="AF31" s="90"/>
-      <c r="AG31" s="91"/>
-      <c r="AH31" s="91"/>
-      <c r="AI31" s="92"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="89"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="90"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="92"/>
+      <c r="S31" s="92"/>
+      <c r="T31" s="92"/>
+      <c r="U31" s="92"/>
+      <c r="V31" s="92"/>
+      <c r="W31" s="92"/>
+      <c r="X31" s="92"/>
+      <c r="Y31" s="92"/>
+      <c r="Z31" s="92"/>
+      <c r="AA31" s="92"/>
+      <c r="AB31" s="92"/>
+      <c r="AC31" s="92"/>
+      <c r="AD31" s="92"/>
+      <c r="AE31" s="93"/>
+      <c r="AF31" s="88"/>
+      <c r="AG31" s="89"/>
+      <c r="AH31" s="89"/>
+      <c r="AI31" s="90"/>
     </row>
     <row r="32" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="74"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="91"/>
-      <c r="M32" s="91"/>
-      <c r="N32" s="91"/>
-      <c r="O32" s="91"/>
-      <c r="P32" s="92"/>
-      <c r="Q32" s="93"/>
-      <c r="R32" s="94"/>
-      <c r="S32" s="94"/>
-      <c r="T32" s="94"/>
-      <c r="U32" s="94"/>
-      <c r="V32" s="94"/>
-      <c r="W32" s="94"/>
-      <c r="X32" s="94"/>
-      <c r="Y32" s="94"/>
-      <c r="Z32" s="94"/>
-      <c r="AA32" s="94"/>
-      <c r="AB32" s="94"/>
-      <c r="AC32" s="94"/>
-      <c r="AD32" s="94"/>
-      <c r="AE32" s="95"/>
-      <c r="AF32" s="90"/>
-      <c r="AG32" s="91"/>
-      <c r="AH32" s="91"/>
-      <c r="AI32" s="92"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="94"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="90"/>
+      <c r="Q32" s="91"/>
+      <c r="R32" s="92"/>
+      <c r="S32" s="92"/>
+      <c r="T32" s="92"/>
+      <c r="U32" s="92"/>
+      <c r="V32" s="92"/>
+      <c r="W32" s="92"/>
+      <c r="X32" s="92"/>
+      <c r="Y32" s="92"/>
+      <c r="Z32" s="92"/>
+      <c r="AA32" s="92"/>
+      <c r="AB32" s="92"/>
+      <c r="AC32" s="92"/>
+      <c r="AD32" s="92"/>
+      <c r="AE32" s="93"/>
+      <c r="AF32" s="88"/>
+      <c r="AG32" s="89"/>
+      <c r="AH32" s="89"/>
+      <c r="AI32" s="90"/>
     </row>
     <row r="33" spans="1:35" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="74"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="91"/>
-      <c r="P33" s="92"/>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="94"/>
-      <c r="S33" s="94"/>
-      <c r="T33" s="94"/>
-      <c r="U33" s="94"/>
-      <c r="V33" s="94"/>
-      <c r="W33" s="94"/>
-      <c r="X33" s="94"/>
-      <c r="Y33" s="94"/>
-      <c r="Z33" s="94"/>
-      <c r="AA33" s="94"/>
-      <c r="AB33" s="94"/>
-      <c r="AC33" s="94"/>
-      <c r="AD33" s="94"/>
-      <c r="AE33" s="95"/>
-      <c r="AF33" s="90"/>
-      <c r="AG33" s="91"/>
-      <c r="AH33" s="91"/>
-      <c r="AI33" s="92"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="89"/>
+      <c r="O33" s="89"/>
+      <c r="P33" s="90"/>
+      <c r="Q33" s="91"/>
+      <c r="R33" s="92"/>
+      <c r="S33" s="92"/>
+      <c r="T33" s="92"/>
+      <c r="U33" s="92"/>
+      <c r="V33" s="92"/>
+      <c r="W33" s="92"/>
+      <c r="X33" s="92"/>
+      <c r="Y33" s="92"/>
+      <c r="Z33" s="92"/>
+      <c r="AA33" s="92"/>
+      <c r="AB33" s="92"/>
+      <c r="AC33" s="92"/>
+      <c r="AD33" s="92"/>
+      <c r="AE33" s="93"/>
+      <c r="AF33" s="88"/>
+      <c r="AG33" s="89"/>
+      <c r="AH33" s="89"/>
+      <c r="AI33" s="90"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="32"/>
@@ -5111,163 +4774,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121" t="str">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="128" t="s">
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="150" t="str">
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>URL一覧</v>
       </c>
-      <c r="T1" s="138"/>
-      <c r="U1" s="138"/>
-      <c r="V1" s="138"/>
-      <c r="W1" s="138"/>
-      <c r="X1" s="138"/>
-      <c r="Y1" s="138"/>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="151" t="s">
+      <c r="T1" s="136"/>
+      <c r="U1" s="136"/>
+      <c r="V1" s="136"/>
+      <c r="W1" s="136"/>
+      <c r="X1" s="136"/>
+      <c r="Y1" s="136"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="149" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="152"/>
-      <c r="AC1" s="146" t="str">
+      <c r="AB1" s="150"/>
+      <c r="AC1" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="153">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="151">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43630</v>
       </c>
-      <c r="AH1" s="154"/>
-      <c r="AI1" s="155"/>
+      <c r="AH1" s="152"/>
+      <c r="AI1" s="153"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121" t="str">
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
-      <c r="W2" s="141"/>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="142"/>
-      <c r="AA2" s="151" t="s">
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="139"/>
+      <c r="U2" s="139"/>
+      <c r="V2" s="139"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="152"/>
-      <c r="AC2" s="146" t="str">
+      <c r="AB2" s="150"/>
+      <c r="AC2" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="147"/>
-      <c r="AF2" s="148"/>
-      <c r="AG2" s="153" t="str">
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="154"/>
-      <c r="AI2" s="155"/>
+      <c r="AH2" s="152"/>
+      <c r="AI2" s="153"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="121" t="str">
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="144"/>
-      <c r="U3" s="144"/>
-      <c r="V3" s="144"/>
-      <c r="W3" s="144"/>
-      <c r="X3" s="144"/>
-      <c r="Y3" s="144"/>
-      <c r="Z3" s="145"/>
-      <c r="AA3" s="151"/>
-      <c r="AB3" s="152"/>
-      <c r="AC3" s="146" t="str">
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="142"/>
+      <c r="V3" s="142"/>
+      <c r="W3" s="142"/>
+      <c r="X3" s="142"/>
+      <c r="Y3" s="142"/>
+      <c r="Z3" s="143"/>
+      <c r="AA3" s="149"/>
+      <c r="AB3" s="150"/>
+      <c r="AC3" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="147"/>
-      <c r="AE3" s="147"/>
-      <c r="AF3" s="148"/>
-      <c r="AG3" s="153" t="str">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="154"/>
-      <c r="AI3" s="155"/>
+      <c r="AH3" s="152"/>
+      <c r="AI3" s="153"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -5388,7 +5051,7 @@
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16"/>
       <c r="B7" s="75" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
@@ -6761,9 +6424,9 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AT45"/>
+  <dimension ref="A1:AT25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -6775,166 +6438,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121" t="str">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="172" t="s">
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="173"/>
-      <c r="T1" s="174"/>
-      <c r="U1" s="181" t="str">
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="169"/>
+      <c r="U1" s="176" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>URL一覧</v>
       </c>
-      <c r="V1" s="182"/>
-      <c r="W1" s="182"/>
-      <c r="X1" s="182"/>
-      <c r="Y1" s="182"/>
-      <c r="Z1" s="182"/>
-      <c r="AA1" s="182"/>
-      <c r="AB1" s="182"/>
-      <c r="AC1" s="183"/>
-      <c r="AD1" s="118" t="s">
+      <c r="V1" s="177"/>
+      <c r="W1" s="177"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="178"/>
+      <c r="AD1" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="146" t="str">
+      <c r="AE1" s="118"/>
+      <c r="AF1" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AG1" s="147"/>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="148"/>
-      <c r="AJ1" s="153">
+      <c r="AG1" s="145"/>
+      <c r="AH1" s="145"/>
+      <c r="AI1" s="146"/>
+      <c r="AJ1" s="151">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43630</v>
       </c>
-      <c r="AK1" s="154"/>
-      <c r="AL1" s="155"/>
+      <c r="AK1" s="152"/>
+      <c r="AL1" s="153"/>
     </row>
     <row r="2" spans="1:46" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121" t="str">
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="176"/>
-      <c r="Q2" s="176"/>
-      <c r="R2" s="176"/>
-      <c r="S2" s="176"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="184"/>
-      <c r="V2" s="185"/>
-      <c r="W2" s="185"/>
-      <c r="X2" s="185"/>
-      <c r="Y2" s="185"/>
-      <c r="Z2" s="185"/>
-      <c r="AA2" s="185"/>
-      <c r="AB2" s="185"/>
-      <c r="AC2" s="186"/>
-      <c r="AD2" s="118" t="s">
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="172"/>
+      <c r="U2" s="179"/>
+      <c r="V2" s="180"/>
+      <c r="W2" s="180"/>
+      <c r="X2" s="180"/>
+      <c r="Y2" s="180"/>
+      <c r="Z2" s="180"/>
+      <c r="AA2" s="180"/>
+      <c r="AB2" s="180"/>
+      <c r="AC2" s="181"/>
+      <c r="AD2" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="146" t="str">
+      <c r="AE2" s="118"/>
+      <c r="AF2" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AG2" s="147"/>
-      <c r="AH2" s="147"/>
-      <c r="AI2" s="148"/>
-      <c r="AJ2" s="153" t="str">
+      <c r="AG2" s="145"/>
+      <c r="AH2" s="145"/>
+      <c r="AI2" s="146"/>
+      <c r="AJ2" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AK2" s="154"/>
-      <c r="AL2" s="155"/>
+      <c r="AK2" s="152"/>
+      <c r="AL2" s="153"/>
     </row>
     <row r="3" spans="1:46" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="121" t="str">
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="178"/>
-      <c r="P3" s="179"/>
-      <c r="Q3" s="179"/>
-      <c r="R3" s="179"/>
-      <c r="S3" s="179"/>
-      <c r="T3" s="180"/>
-      <c r="U3" s="187"/>
-      <c r="V3" s="188"/>
-      <c r="W3" s="188"/>
-      <c r="X3" s="188"/>
-      <c r="Y3" s="188"/>
-      <c r="Z3" s="188"/>
-      <c r="AA3" s="188"/>
-      <c r="AB3" s="188"/>
-      <c r="AC3" s="189"/>
-      <c r="AD3" s="118"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="146" t="str">
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="173"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="174"/>
+      <c r="T3" s="175"/>
+      <c r="U3" s="182"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="183"/>
+      <c r="AA3" s="183"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="184"/>
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="118"/>
+      <c r="AF3" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AG3" s="147"/>
-      <c r="AH3" s="147"/>
-      <c r="AI3" s="148"/>
-      <c r="AJ3" s="153" t="str">
+      <c r="AG3" s="145"/>
+      <c r="AH3" s="145"/>
+      <c r="AI3" s="146"/>
+      <c r="AJ3" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AK3" s="154"/>
-      <c r="AL3" s="155"/>
+      <c r="AK3" s="152"/>
+      <c r="AL3" s="153"/>
     </row>
     <row r="4" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16"/>
@@ -6987,7 +6650,7 @@
     <row r="5" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="75" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -7039,24 +6702,24 @@
       <c r="C7" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="169" t="s">
+      <c r="D7" s="164" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="170"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="169" t="s">
+      <c r="E7" s="165"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="171"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="165"/>
+      <c r="K7" s="166"/>
       <c r="L7" s="77" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="M7" s="78"/>
       <c r="N7" s="77" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="O7" s="80"/>
       <c r="P7" s="78"/>
@@ -7088,1846 +6751,871 @@
       <c r="C8" s="74">
         <v>1</v>
       </c>
-      <c r="D8" s="156" t="s">
+      <c r="D8" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="157"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="156" t="s">
+      <c r="E8" s="155"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="157"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="157"/>
-      <c r="K8" s="158"/>
-      <c r="L8" s="162" t="s">
-        <v>70</v>
-      </c>
-      <c r="M8" s="164"/>
-      <c r="N8" s="162" t="s">
-        <v>94</v>
-      </c>
-      <c r="O8" s="163"/>
-      <c r="P8" s="163"/>
-      <c r="Q8" s="163"/>
-      <c r="R8" s="163"/>
-      <c r="S8" s="163"/>
-      <c r="T8" s="163"/>
-      <c r="U8" s="163"/>
-      <c r="V8" s="163"/>
-      <c r="W8" s="163"/>
-      <c r="X8" s="164"/>
-      <c r="Y8" s="166" t="s">
+      <c r="H8" s="155"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="156"/>
+      <c r="L8" s="185" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="187"/>
+      <c r="N8" s="185" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="186"/>
+      <c r="P8" s="186"/>
+      <c r="Q8" s="186"/>
+      <c r="R8" s="186"/>
+      <c r="S8" s="186"/>
+      <c r="T8" s="186"/>
+      <c r="U8" s="186"/>
+      <c r="V8" s="186"/>
+      <c r="W8" s="186"/>
+      <c r="X8" s="187"/>
+      <c r="Y8" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="Z8" s="167"/>
-      <c r="AA8" s="167"/>
-      <c r="AB8" s="167"/>
-      <c r="AC8" s="167"/>
-      <c r="AD8" s="167"/>
-      <c r="AE8" s="167"/>
-      <c r="AF8" s="167"/>
-      <c r="AG8" s="167"/>
-      <c r="AH8" s="167"/>
-      <c r="AI8" s="167"/>
-      <c r="AJ8" s="167"/>
-      <c r="AK8" s="168"/>
+      <c r="Z8" s="162"/>
+      <c r="AA8" s="162"/>
+      <c r="AB8" s="162"/>
+      <c r="AC8" s="162"/>
+      <c r="AD8" s="162"/>
+      <c r="AE8" s="162"/>
+      <c r="AF8" s="162"/>
+      <c r="AG8" s="162"/>
+      <c r="AH8" s="162"/>
+      <c r="AI8" s="162"/>
+      <c r="AJ8" s="162"/>
+      <c r="AK8" s="163"/>
     </row>
     <row r="9" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C9" s="74">
         <v>2</v>
       </c>
-      <c r="D9" s="165"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="160"/>
-      <c r="K9" s="161"/>
-      <c r="L9" s="162" t="s">
-        <v>69</v>
-      </c>
-      <c r="M9" s="164"/>
-      <c r="N9" s="162" t="s">
-        <v>94</v>
-      </c>
-      <c r="O9" s="163"/>
-      <c r="P9" s="163"/>
-      <c r="Q9" s="163"/>
-      <c r="R9" s="163"/>
-      <c r="S9" s="163"/>
-      <c r="T9" s="163"/>
-      <c r="U9" s="163"/>
-      <c r="V9" s="163"/>
-      <c r="W9" s="163"/>
-      <c r="X9" s="164"/>
-      <c r="Y9" s="166" t="s">
+      <c r="D9" s="157"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="158"/>
+      <c r="K9" s="159"/>
+      <c r="L9" s="185" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="187"/>
+      <c r="N9" s="185" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="186"/>
+      <c r="P9" s="186"/>
+      <c r="Q9" s="186"/>
+      <c r="R9" s="186"/>
+      <c r="S9" s="186"/>
+      <c r="T9" s="186"/>
+      <c r="U9" s="186"/>
+      <c r="V9" s="186"/>
+      <c r="W9" s="186"/>
+      <c r="X9" s="187"/>
+      <c r="Y9" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="Z9" s="167"/>
-      <c r="AA9" s="167"/>
-      <c r="AB9" s="167"/>
-      <c r="AC9" s="167"/>
-      <c r="AD9" s="167"/>
-      <c r="AE9" s="167"/>
-      <c r="AF9" s="167"/>
-      <c r="AG9" s="167"/>
-      <c r="AH9" s="167"/>
-      <c r="AI9" s="167"/>
-      <c r="AJ9" s="167"/>
-      <c r="AK9" s="168"/>
+      <c r="Z9" s="162"/>
+      <c r="AA9" s="162"/>
+      <c r="AB9" s="162"/>
+      <c r="AC9" s="162"/>
+      <c r="AD9" s="162"/>
+      <c r="AE9" s="162"/>
+      <c r="AF9" s="162"/>
+      <c r="AG9" s="162"/>
+      <c r="AH9" s="162"/>
+      <c r="AI9" s="162"/>
+      <c r="AJ9" s="162"/>
+      <c r="AK9" s="163"/>
     </row>
     <row r="10" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C10" s="74">
         <v>3</v>
       </c>
-      <c r="D10" s="165"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="160"/>
-      <c r="K10" s="161"/>
-      <c r="L10" s="162" t="s">
-        <v>70</v>
-      </c>
-      <c r="M10" s="164"/>
-      <c r="N10" s="162" t="s">
-        <v>95</v>
-      </c>
-      <c r="O10" s="163"/>
-      <c r="P10" s="163"/>
-      <c r="Q10" s="163"/>
-      <c r="R10" s="163"/>
-      <c r="S10" s="163"/>
-      <c r="T10" s="163"/>
-      <c r="U10" s="163"/>
-      <c r="V10" s="163"/>
-      <c r="W10" s="163"/>
-      <c r="X10" s="164"/>
-      <c r="Y10" s="166" t="s">
+      <c r="D10" s="157"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="159"/>
+      <c r="L10" s="185" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="187"/>
+      <c r="N10" s="185" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10" s="186"/>
+      <c r="P10" s="186"/>
+      <c r="Q10" s="186"/>
+      <c r="R10" s="186"/>
+      <c r="S10" s="186"/>
+      <c r="T10" s="186"/>
+      <c r="U10" s="186"/>
+      <c r="V10" s="186"/>
+      <c r="W10" s="186"/>
+      <c r="X10" s="187"/>
+      <c r="Y10" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="Z10" s="167"/>
-      <c r="AA10" s="167"/>
-      <c r="AB10" s="167"/>
-      <c r="AC10" s="167"/>
-      <c r="AD10" s="167"/>
-      <c r="AE10" s="167"/>
-      <c r="AF10" s="167"/>
-      <c r="AG10" s="167"/>
-      <c r="AH10" s="167"/>
-      <c r="AI10" s="167"/>
-      <c r="AJ10" s="167"/>
-      <c r="AK10" s="168"/>
+      <c r="Z10" s="162"/>
+      <c r="AA10" s="162"/>
+      <c r="AB10" s="162"/>
+      <c r="AC10" s="162"/>
+      <c r="AD10" s="162"/>
+      <c r="AE10" s="162"/>
+      <c r="AF10" s="162"/>
+      <c r="AG10" s="162"/>
+      <c r="AH10" s="162"/>
+      <c r="AI10" s="162"/>
+      <c r="AJ10" s="162"/>
+      <c r="AK10" s="163"/>
     </row>
     <row r="11" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C11" s="74">
         <v>4</v>
       </c>
-      <c r="D11" s="159"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="160"/>
-      <c r="K11" s="161"/>
-      <c r="L11" s="162" t="s">
-        <v>70</v>
-      </c>
-      <c r="M11" s="164"/>
-      <c r="N11" s="162" t="s">
-        <v>76</v>
-      </c>
-      <c r="O11" s="163"/>
-      <c r="P11" s="163"/>
-      <c r="Q11" s="163"/>
-      <c r="R11" s="163"/>
-      <c r="S11" s="163"/>
-      <c r="T11" s="163"/>
-      <c r="U11" s="163"/>
-      <c r="V11" s="163"/>
-      <c r="W11" s="163"/>
-      <c r="X11" s="164"/>
-      <c r="Y11" s="166" t="s">
+      <c r="D11" s="160"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="158"/>
+      <c r="K11" s="159"/>
+      <c r="L11" s="185" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" s="187"/>
+      <c r="N11" s="185" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="186"/>
+      <c r="P11" s="186"/>
+      <c r="Q11" s="186"/>
+      <c r="R11" s="186"/>
+      <c r="S11" s="186"/>
+      <c r="T11" s="186"/>
+      <c r="U11" s="186"/>
+      <c r="V11" s="186"/>
+      <c r="W11" s="186"/>
+      <c r="X11" s="187"/>
+      <c r="Y11" s="161" t="s">
         <v>37</v>
       </c>
-      <c r="Z11" s="167"/>
-      <c r="AA11" s="167"/>
-      <c r="AB11" s="167"/>
-      <c r="AC11" s="167"/>
-      <c r="AD11" s="167"/>
-      <c r="AE11" s="167"/>
-      <c r="AF11" s="167"/>
-      <c r="AG11" s="167"/>
-      <c r="AH11" s="167"/>
-      <c r="AI11" s="167"/>
-      <c r="AJ11" s="167"/>
-      <c r="AK11" s="168"/>
+      <c r="Z11" s="162"/>
+      <c r="AA11" s="162"/>
+      <c r="AB11" s="162"/>
+      <c r="AC11" s="162"/>
+      <c r="AD11" s="162"/>
+      <c r="AE11" s="162"/>
+      <c r="AF11" s="162"/>
+      <c r="AG11" s="162"/>
+      <c r="AH11" s="162"/>
+      <c r="AI11" s="162"/>
+      <c r="AJ11" s="162"/>
+      <c r="AK11" s="163"/>
     </row>
     <row r="12" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C12" s="74">
         <v>5</v>
       </c>
-      <c r="D12" s="156" t="s">
+      <c r="D12" s="154" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="157"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="156" t="s">
+      <c r="E12" s="155"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="157"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="157"/>
-      <c r="K12" s="158"/>
-      <c r="L12" s="162" t="s">
-        <v>70</v>
-      </c>
-      <c r="M12" s="164"/>
-      <c r="N12" s="162" t="s">
-        <v>96</v>
-      </c>
-      <c r="O12" s="163"/>
-      <c r="P12" s="163"/>
-      <c r="Q12" s="163"/>
-      <c r="R12" s="163"/>
-      <c r="S12" s="163"/>
-      <c r="T12" s="163"/>
-      <c r="U12" s="163"/>
-      <c r="V12" s="163"/>
-      <c r="W12" s="163"/>
-      <c r="X12" s="164"/>
-      <c r="Y12" s="166" t="s">
+      <c r="H12" s="155"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="155"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="185" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="187"/>
+      <c r="N12" s="185" t="s">
+        <v>60</v>
+      </c>
+      <c r="O12" s="186"/>
+      <c r="P12" s="186"/>
+      <c r="Q12" s="186"/>
+      <c r="R12" s="186"/>
+      <c r="S12" s="186"/>
+      <c r="T12" s="186"/>
+      <c r="U12" s="186"/>
+      <c r="V12" s="186"/>
+      <c r="W12" s="186"/>
+      <c r="X12" s="187"/>
+      <c r="Y12" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="Z12" s="167"/>
-      <c r="AA12" s="167"/>
-      <c r="AB12" s="167"/>
-      <c r="AC12" s="167"/>
-      <c r="AD12" s="167"/>
-      <c r="AE12" s="167"/>
-      <c r="AF12" s="167"/>
-      <c r="AG12" s="167"/>
-      <c r="AH12" s="167"/>
-      <c r="AI12" s="167"/>
-      <c r="AJ12" s="167"/>
-      <c r="AK12" s="168"/>
+      <c r="Z12" s="162"/>
+      <c r="AA12" s="162"/>
+      <c r="AB12" s="162"/>
+      <c r="AC12" s="162"/>
+      <c r="AD12" s="162"/>
+      <c r="AE12" s="162"/>
+      <c r="AF12" s="162"/>
+      <c r="AG12" s="162"/>
+      <c r="AH12" s="162"/>
+      <c r="AI12" s="162"/>
+      <c r="AJ12" s="162"/>
+      <c r="AK12" s="163"/>
     </row>
     <row r="13" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C13" s="74">
         <v>6</v>
       </c>
-      <c r="D13" s="159"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="160"/>
-      <c r="I13" s="160"/>
-      <c r="J13" s="160"/>
-      <c r="K13" s="161"/>
-      <c r="L13" s="162" t="s">
-        <v>69</v>
-      </c>
-      <c r="M13" s="164"/>
-      <c r="N13" s="162" t="s">
-        <v>81</v>
-      </c>
-      <c r="O13" s="163"/>
-      <c r="P13" s="163"/>
-      <c r="Q13" s="163"/>
-      <c r="R13" s="163"/>
-      <c r="S13" s="163"/>
-      <c r="T13" s="163"/>
-      <c r="U13" s="163"/>
-      <c r="V13" s="163"/>
-      <c r="W13" s="163"/>
-      <c r="X13" s="164"/>
-      <c r="Y13" s="166" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z13" s="167"/>
-      <c r="AA13" s="167"/>
-      <c r="AB13" s="167"/>
-      <c r="AC13" s="167"/>
-      <c r="AD13" s="167"/>
-      <c r="AE13" s="167"/>
-      <c r="AF13" s="167"/>
-      <c r="AG13" s="167"/>
-      <c r="AH13" s="167"/>
-      <c r="AI13" s="167"/>
-      <c r="AJ13" s="167"/>
-      <c r="AK13" s="168"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="159"/>
+      <c r="L13" s="185" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="187"/>
+      <c r="N13" s="185" t="s">
+        <v>54</v>
+      </c>
+      <c r="O13" s="186"/>
+      <c r="P13" s="186"/>
+      <c r="Q13" s="186"/>
+      <c r="R13" s="186"/>
+      <c r="S13" s="186"/>
+      <c r="T13" s="186"/>
+      <c r="U13" s="186"/>
+      <c r="V13" s="186"/>
+      <c r="W13" s="186"/>
+      <c r="X13" s="187"/>
+      <c r="Y13" s="161" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z13" s="162"/>
+      <c r="AA13" s="162"/>
+      <c r="AB13" s="162"/>
+      <c r="AC13" s="162"/>
+      <c r="AD13" s="162"/>
+      <c r="AE13" s="162"/>
+      <c r="AF13" s="162"/>
+      <c r="AG13" s="162"/>
+      <c r="AH13" s="162"/>
+      <c r="AI13" s="162"/>
+      <c r="AJ13" s="162"/>
+      <c r="AK13" s="163"/>
     </row>
     <row r="14" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C14" s="74">
         <v>7</v>
       </c>
-      <c r="D14" s="159"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="161"/>
-      <c r="L14" s="162" t="s">
-        <v>69</v>
-      </c>
-      <c r="M14" s="164"/>
-      <c r="N14" s="162" t="s">
-        <v>82</v>
-      </c>
-      <c r="O14" s="163"/>
-      <c r="P14" s="163"/>
-      <c r="Q14" s="163"/>
-      <c r="R14" s="163"/>
-      <c r="S14" s="163"/>
-      <c r="T14" s="163"/>
-      <c r="U14" s="163"/>
-      <c r="V14" s="163"/>
-      <c r="W14" s="163"/>
-      <c r="X14" s="164"/>
-      <c r="Y14" s="166" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z14" s="167"/>
-      <c r="AA14" s="167"/>
-      <c r="AB14" s="167"/>
-      <c r="AC14" s="167"/>
-      <c r="AD14" s="167"/>
-      <c r="AE14" s="167"/>
-      <c r="AF14" s="167"/>
-      <c r="AG14" s="167"/>
-      <c r="AH14" s="167"/>
-      <c r="AI14" s="167"/>
-      <c r="AJ14" s="167"/>
-      <c r="AK14" s="168"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="185" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="187"/>
+      <c r="N14" s="185" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="186"/>
+      <c r="P14" s="186"/>
+      <c r="Q14" s="186"/>
+      <c r="R14" s="186"/>
+      <c r="S14" s="186"/>
+      <c r="T14" s="186"/>
+      <c r="U14" s="186"/>
+      <c r="V14" s="186"/>
+      <c r="W14" s="186"/>
+      <c r="X14" s="187"/>
+      <c r="Y14" s="161" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z14" s="162"/>
+      <c r="AA14" s="162"/>
+      <c r="AB14" s="162"/>
+      <c r="AC14" s="162"/>
+      <c r="AD14" s="162"/>
+      <c r="AE14" s="162"/>
+      <c r="AF14" s="162"/>
+      <c r="AG14" s="162"/>
+      <c r="AH14" s="162"/>
+      <c r="AI14" s="162"/>
+      <c r="AJ14" s="162"/>
+      <c r="AK14" s="163"/>
     </row>
     <row r="15" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C15" s="74">
         <v>8</v>
       </c>
-      <c r="D15" s="159"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="160"/>
-      <c r="K15" s="161"/>
-      <c r="L15" s="162" t="s">
-        <v>73</v>
-      </c>
-      <c r="M15" s="164"/>
-      <c r="N15" s="162" t="s">
-        <v>83</v>
-      </c>
-      <c r="O15" s="163"/>
-      <c r="P15" s="163"/>
-      <c r="Q15" s="163"/>
-      <c r="R15" s="163"/>
-      <c r="S15" s="163"/>
-      <c r="T15" s="163"/>
-      <c r="U15" s="163"/>
-      <c r="V15" s="163"/>
-      <c r="W15" s="163"/>
-      <c r="X15" s="164"/>
-      <c r="Y15" s="166" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z15" s="167"/>
-      <c r="AA15" s="167"/>
-      <c r="AB15" s="167"/>
-      <c r="AC15" s="167"/>
-      <c r="AD15" s="167"/>
-      <c r="AE15" s="167"/>
-      <c r="AF15" s="167"/>
-      <c r="AG15" s="167"/>
-      <c r="AH15" s="167"/>
-      <c r="AI15" s="167"/>
-      <c r="AJ15" s="167"/>
-      <c r="AK15" s="168"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="158"/>
+      <c r="K15" s="159"/>
+      <c r="L15" s="185" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" s="187"/>
+      <c r="N15" s="185" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" s="186"/>
+      <c r="P15" s="186"/>
+      <c r="Q15" s="186"/>
+      <c r="R15" s="186"/>
+      <c r="S15" s="186"/>
+      <c r="T15" s="186"/>
+      <c r="U15" s="186"/>
+      <c r="V15" s="186"/>
+      <c r="W15" s="186"/>
+      <c r="X15" s="187"/>
+      <c r="Y15" s="161" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z15" s="162"/>
+      <c r="AA15" s="162"/>
+      <c r="AB15" s="162"/>
+      <c r="AC15" s="162"/>
+      <c r="AD15" s="162"/>
+      <c r="AE15" s="162"/>
+      <c r="AF15" s="162"/>
+      <c r="AG15" s="162"/>
+      <c r="AH15" s="162"/>
+      <c r="AI15" s="162"/>
+      <c r="AJ15" s="162"/>
+      <c r="AK15" s="163"/>
     </row>
     <row r="16" spans="1:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C16" s="74">
         <v>9</v>
       </c>
-      <c r="D16" s="159"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="161"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
-      <c r="K16" s="161"/>
-      <c r="L16" s="162" t="s">
-        <v>69</v>
-      </c>
-      <c r="M16" s="164"/>
-      <c r="N16" s="162" t="s">
-        <v>84</v>
-      </c>
-      <c r="O16" s="163"/>
-      <c r="P16" s="163"/>
-      <c r="Q16" s="163"/>
-      <c r="R16" s="163"/>
-      <c r="S16" s="163"/>
-      <c r="T16" s="163"/>
-      <c r="U16" s="163"/>
-      <c r="V16" s="163"/>
-      <c r="W16" s="163"/>
-      <c r="X16" s="164"/>
-      <c r="Y16" s="166" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z16" s="167"/>
-      <c r="AA16" s="167"/>
-      <c r="AB16" s="167"/>
-      <c r="AC16" s="167"/>
-      <c r="AD16" s="167"/>
-      <c r="AE16" s="167"/>
-      <c r="AF16" s="167"/>
-      <c r="AG16" s="167"/>
-      <c r="AH16" s="167"/>
-      <c r="AI16" s="167"/>
-      <c r="AJ16" s="167"/>
-      <c r="AK16" s="168"/>
-    </row>
-    <row r="17" spans="3:37" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="74">
-        <v>10</v>
-      </c>
-      <c r="D17" s="159"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="160"/>
-      <c r="K17" s="161"/>
-      <c r="L17" s="162" t="s">
-        <v>70</v>
-      </c>
-      <c r="M17" s="164"/>
-      <c r="N17" s="162" t="s">
-        <v>85</v>
-      </c>
-      <c r="O17" s="163"/>
-      <c r="P17" s="163"/>
-      <c r="Q17" s="163"/>
-      <c r="R17" s="163"/>
-      <c r="S17" s="163"/>
-      <c r="T17" s="163"/>
-      <c r="U17" s="163"/>
-      <c r="V17" s="163"/>
-      <c r="W17" s="163"/>
-      <c r="X17" s="164"/>
-      <c r="Y17" s="166" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z17" s="167"/>
-      <c r="AA17" s="167"/>
-      <c r="AB17" s="167"/>
-      <c r="AC17" s="167"/>
-      <c r="AD17" s="167"/>
-      <c r="AE17" s="167"/>
-      <c r="AF17" s="167"/>
-      <c r="AG17" s="167"/>
-      <c r="AH17" s="167"/>
-      <c r="AI17" s="167"/>
-      <c r="AJ17" s="167"/>
-      <c r="AK17" s="168"/>
-    </row>
-    <row r="18" spans="3:37" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="74">
-        <v>11</v>
-      </c>
-      <c r="D18" s="159"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="160"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="162" t="s">
-        <v>69</v>
-      </c>
-      <c r="M18" s="164"/>
-      <c r="N18" s="162" t="s">
-        <v>86</v>
-      </c>
-      <c r="O18" s="163"/>
-      <c r="P18" s="163"/>
-      <c r="Q18" s="163"/>
-      <c r="R18" s="163"/>
-      <c r="S18" s="163"/>
-      <c r="T18" s="163"/>
-      <c r="U18" s="163"/>
-      <c r="V18" s="163"/>
-      <c r="W18" s="163"/>
-      <c r="X18" s="164"/>
-      <c r="Y18" s="166" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z18" s="167"/>
-      <c r="AA18" s="167"/>
-      <c r="AB18" s="167"/>
-      <c r="AC18" s="167"/>
-      <c r="AD18" s="167"/>
-      <c r="AE18" s="167"/>
-      <c r="AF18" s="167"/>
-      <c r="AG18" s="167"/>
-      <c r="AH18" s="167"/>
-      <c r="AI18" s="167"/>
-      <c r="AJ18" s="167"/>
-      <c r="AK18" s="168"/>
-    </row>
-    <row r="19" spans="3:37" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="74">
-        <v>12</v>
-      </c>
-      <c r="D19" s="159"/>
-      <c r="E19" s="160"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="160"/>
-      <c r="K19" s="161"/>
-      <c r="L19" s="162" t="s">
-        <v>69</v>
-      </c>
-      <c r="M19" s="164"/>
-      <c r="N19" s="162" t="s">
-        <v>85</v>
-      </c>
-      <c r="O19" s="163"/>
-      <c r="P19" s="163"/>
-      <c r="Q19" s="163"/>
-      <c r="R19" s="163"/>
-      <c r="S19" s="163"/>
-      <c r="T19" s="163"/>
-      <c r="U19" s="163"/>
-      <c r="V19" s="163"/>
-      <c r="W19" s="163"/>
-      <c r="X19" s="164"/>
-      <c r="Y19" s="166" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z19" s="167"/>
-      <c r="AA19" s="167"/>
-      <c r="AB19" s="167"/>
-      <c r="AC19" s="167"/>
-      <c r="AD19" s="167"/>
-      <c r="AE19" s="167"/>
-      <c r="AF19" s="167"/>
-      <c r="AG19" s="167"/>
-      <c r="AH19" s="167"/>
-      <c r="AI19" s="167"/>
-      <c r="AJ19" s="167"/>
-      <c r="AK19" s="168"/>
-    </row>
-    <row r="20" spans="3:37" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="74">
-        <v>13</v>
-      </c>
-      <c r="D20" s="159"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="160"/>
-      <c r="K20" s="161"/>
-      <c r="L20" s="162" t="s">
-        <v>73</v>
-      </c>
-      <c r="M20" s="164"/>
-      <c r="N20" s="162" t="s">
-        <v>87</v>
-      </c>
-      <c r="O20" s="163"/>
-      <c r="P20" s="163"/>
-      <c r="Q20" s="163"/>
-      <c r="R20" s="163"/>
-      <c r="S20" s="163"/>
-      <c r="T20" s="163"/>
-      <c r="U20" s="163"/>
-      <c r="V20" s="163"/>
-      <c r="W20" s="163"/>
-      <c r="X20" s="164"/>
-      <c r="Y20" s="166" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z20" s="167"/>
-      <c r="AA20" s="167"/>
-      <c r="AB20" s="167"/>
-      <c r="AC20" s="167"/>
-      <c r="AD20" s="167"/>
-      <c r="AE20" s="167"/>
-      <c r="AF20" s="167"/>
-      <c r="AG20" s="167"/>
-      <c r="AH20" s="167"/>
-      <c r="AI20" s="167"/>
-      <c r="AJ20" s="167"/>
-      <c r="AK20" s="168"/>
-    </row>
-    <row r="21" spans="3:37" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="74">
-        <v>14</v>
-      </c>
-      <c r="D21" s="159"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="159"/>
-      <c r="H21" s="160"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="160"/>
-      <c r="K21" s="161"/>
-      <c r="L21" s="162" t="s">
-        <v>69</v>
-      </c>
-      <c r="M21" s="164"/>
-      <c r="N21" s="162" t="s">
-        <v>88</v>
-      </c>
-      <c r="O21" s="163"/>
-      <c r="P21" s="163"/>
-      <c r="Q21" s="163"/>
-      <c r="R21" s="163"/>
-      <c r="S21" s="163"/>
-      <c r="T21" s="163"/>
-      <c r="U21" s="163"/>
-      <c r="V21" s="163"/>
-      <c r="W21" s="163"/>
-      <c r="X21" s="164"/>
-      <c r="Y21" s="166" t="s">
+      <c r="D16" s="188"/>
+      <c r="E16" s="189"/>
+      <c r="F16" s="190"/>
+      <c r="G16" s="188"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="190"/>
+      <c r="L16" s="185" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="187"/>
+      <c r="N16" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="Z21" s="167"/>
-      <c r="AA21" s="167"/>
-      <c r="AB21" s="167"/>
-      <c r="AC21" s="167"/>
-      <c r="AD21" s="167"/>
-      <c r="AE21" s="167"/>
-      <c r="AF21" s="167"/>
-      <c r="AG21" s="167"/>
-      <c r="AH21" s="167"/>
-      <c r="AI21" s="167"/>
-      <c r="AJ21" s="167"/>
-      <c r="AK21" s="168"/>
-    </row>
-    <row r="22" spans="3:37" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="74">
-        <v>15</v>
-      </c>
-      <c r="D22" s="159"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="160"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="160"/>
-      <c r="K22" s="161"/>
-      <c r="L22" s="162" t="s">
-        <v>69</v>
-      </c>
-      <c r="M22" s="164"/>
-      <c r="N22" s="162" t="s">
-        <v>89</v>
-      </c>
-      <c r="O22" s="163"/>
-      <c r="P22" s="163"/>
-      <c r="Q22" s="163"/>
-      <c r="R22" s="163"/>
-      <c r="S22" s="163"/>
-      <c r="T22" s="163"/>
-      <c r="U22" s="163"/>
-      <c r="V22" s="163"/>
-      <c r="W22" s="163"/>
-      <c r="X22" s="164"/>
-      <c r="Y22" s="166" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z22" s="167"/>
-      <c r="AA22" s="167"/>
-      <c r="AB22" s="167"/>
-      <c r="AC22" s="167"/>
-      <c r="AD22" s="167"/>
-      <c r="AE22" s="167"/>
-      <c r="AF22" s="167"/>
-      <c r="AG22" s="167"/>
-      <c r="AH22" s="167"/>
-      <c r="AI22" s="167"/>
-      <c r="AJ22" s="167"/>
-      <c r="AK22" s="168"/>
-    </row>
-    <row r="23" spans="3:37" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="74">
-        <v>16</v>
-      </c>
-      <c r="D23" s="159"/>
-      <c r="E23" s="160"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="160"/>
-      <c r="K23" s="161"/>
-      <c r="L23" s="162" t="s">
-        <v>69</v>
-      </c>
-      <c r="M23" s="164"/>
-      <c r="N23" s="162" t="s">
-        <v>90</v>
-      </c>
-      <c r="O23" s="163"/>
-      <c r="P23" s="163"/>
-      <c r="Q23" s="163"/>
-      <c r="R23" s="163"/>
-      <c r="S23" s="163"/>
-      <c r="T23" s="163"/>
-      <c r="U23" s="163"/>
-      <c r="V23" s="163"/>
-      <c r="W23" s="163"/>
-      <c r="X23" s="164"/>
-      <c r="Y23" s="166" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z23" s="167"/>
-      <c r="AA23" s="167"/>
-      <c r="AB23" s="167"/>
-      <c r="AC23" s="167"/>
-      <c r="AD23" s="167"/>
-      <c r="AE23" s="167"/>
-      <c r="AF23" s="167"/>
-      <c r="AG23" s="167"/>
-      <c r="AH23" s="167"/>
-      <c r="AI23" s="167"/>
-      <c r="AJ23" s="167"/>
-      <c r="AK23" s="168"/>
-    </row>
-    <row r="24" spans="3:37" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="74">
-        <v>17</v>
-      </c>
-      <c r="D24" s="159"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="160"/>
-      <c r="J24" s="160"/>
-      <c r="K24" s="161"/>
-      <c r="L24" s="162" t="s">
-        <v>70</v>
-      </c>
-      <c r="M24" s="164"/>
-      <c r="N24" s="162" t="s">
-        <v>91</v>
-      </c>
-      <c r="O24" s="163"/>
-      <c r="P24" s="163"/>
-      <c r="Q24" s="163"/>
-      <c r="R24" s="163"/>
-      <c r="S24" s="163"/>
-      <c r="T24" s="163"/>
-      <c r="U24" s="163"/>
-      <c r="V24" s="163"/>
-      <c r="W24" s="163"/>
-      <c r="X24" s="164"/>
-      <c r="Y24" s="166" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z24" s="167"/>
-      <c r="AA24" s="167"/>
-      <c r="AB24" s="167"/>
-      <c r="AC24" s="167"/>
-      <c r="AD24" s="167"/>
-      <c r="AE24" s="167"/>
-      <c r="AF24" s="167"/>
-      <c r="AG24" s="167"/>
-      <c r="AH24" s="167"/>
-      <c r="AI24" s="167"/>
-      <c r="AJ24" s="167"/>
-      <c r="AK24" s="168"/>
-    </row>
-    <row r="25" spans="3:37" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="74">
-        <v>18</v>
-      </c>
-      <c r="D25" s="159"/>
-      <c r="E25" s="160"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="160"/>
-      <c r="K25" s="161"/>
-      <c r="L25" s="162" t="s">
-        <v>70</v>
-      </c>
-      <c r="M25" s="164"/>
-      <c r="N25" s="162" t="s">
-        <v>92</v>
-      </c>
-      <c r="O25" s="163"/>
-      <c r="P25" s="163"/>
-      <c r="Q25" s="163"/>
-      <c r="R25" s="163"/>
-      <c r="S25" s="163"/>
-      <c r="T25" s="163"/>
-      <c r="U25" s="163"/>
-      <c r="V25" s="163"/>
-      <c r="W25" s="163"/>
-      <c r="X25" s="164"/>
-      <c r="Y25" s="166" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z25" s="167"/>
-      <c r="AA25" s="167"/>
-      <c r="AB25" s="167"/>
-      <c r="AC25" s="167"/>
-      <c r="AD25" s="167"/>
-      <c r="AE25" s="167"/>
-      <c r="AF25" s="167"/>
-      <c r="AG25" s="167"/>
-      <c r="AH25" s="167"/>
-      <c r="AI25" s="167"/>
-      <c r="AJ25" s="167"/>
-      <c r="AK25" s="168"/>
-    </row>
-    <row r="26" spans="3:37" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="74">
-        <v>19</v>
-      </c>
-      <c r="D26" s="197"/>
-      <c r="E26" s="198"/>
-      <c r="F26" s="199"/>
-      <c r="G26" s="197"/>
-      <c r="H26" s="198"/>
-      <c r="I26" s="198"/>
-      <c r="J26" s="198"/>
-      <c r="K26" s="199"/>
-      <c r="L26" s="162" t="s">
-        <v>70</v>
-      </c>
-      <c r="M26" s="164"/>
-      <c r="N26" s="162" t="s">
-        <v>93</v>
-      </c>
-      <c r="O26" s="163"/>
-      <c r="P26" s="163"/>
-      <c r="Q26" s="163"/>
-      <c r="R26" s="163"/>
-      <c r="S26" s="163"/>
-      <c r="T26" s="163"/>
-      <c r="U26" s="163"/>
-      <c r="V26" s="163"/>
-      <c r="W26" s="163"/>
-      <c r="X26" s="164"/>
-      <c r="Y26" s="166" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z26" s="167"/>
-      <c r="AA26" s="167"/>
-      <c r="AB26" s="167"/>
-      <c r="AC26" s="167"/>
-      <c r="AD26" s="167"/>
-      <c r="AE26" s="167"/>
-      <c r="AF26" s="167"/>
-      <c r="AG26" s="167"/>
-      <c r="AH26" s="167"/>
-      <c r="AI26" s="167"/>
-      <c r="AJ26" s="167"/>
-      <c r="AK26" s="168"/>
-    </row>
-    <row r="27" spans="3:37" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C27" s="74">
-        <v>20</v>
-      </c>
-      <c r="D27" s="190" t="s">
+      <c r="O16" s="186"/>
+      <c r="P16" s="186"/>
+      <c r="Q16" s="186"/>
+      <c r="R16" s="186"/>
+      <c r="S16" s="186"/>
+      <c r="T16" s="186"/>
+      <c r="U16" s="186"/>
+      <c r="V16" s="186"/>
+      <c r="W16" s="186"/>
+      <c r="X16" s="187"/>
+      <c r="Y16" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="191"/>
-      <c r="F27" s="192"/>
-      <c r="G27" s="190" t="s">
-        <v>42</v>
-      </c>
-      <c r="H27" s="191"/>
-      <c r="I27" s="191"/>
-      <c r="J27" s="191"/>
-      <c r="K27" s="192"/>
-      <c r="L27" s="162" t="s">
-        <v>70</v>
-      </c>
-      <c r="M27" s="164"/>
-      <c r="N27" s="162" t="s">
-        <v>97</v>
-      </c>
-      <c r="O27" s="163"/>
-      <c r="P27" s="163"/>
-      <c r="Q27" s="163"/>
-      <c r="R27" s="163"/>
-      <c r="S27" s="163"/>
-      <c r="T27" s="163"/>
-      <c r="U27" s="163"/>
-      <c r="V27" s="163"/>
-      <c r="W27" s="163"/>
-      <c r="X27" s="164"/>
-      <c r="Y27" s="166" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z27" s="167"/>
-      <c r="AA27" s="167"/>
-      <c r="AB27" s="167"/>
-      <c r="AC27" s="167"/>
-      <c r="AD27" s="167"/>
-      <c r="AE27" s="167"/>
-      <c r="AF27" s="167"/>
-      <c r="AG27" s="167"/>
-      <c r="AH27" s="167"/>
-      <c r="AI27" s="167"/>
-      <c r="AJ27" s="167"/>
-      <c r="AK27" s="168"/>
-    </row>
-    <row r="28" spans="3:37" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="74">
-        <v>21</v>
-      </c>
-      <c r="D28" s="196"/>
-      <c r="E28" s="194"/>
-      <c r="F28" s="195"/>
-      <c r="G28" s="196"/>
-      <c r="H28" s="194"/>
-      <c r="I28" s="194"/>
-      <c r="J28" s="194"/>
-      <c r="K28" s="195"/>
-      <c r="L28" s="162" t="s">
-        <v>70</v>
-      </c>
-      <c r="M28" s="164"/>
-      <c r="N28" s="162" t="s">
-        <v>98</v>
-      </c>
-      <c r="O28" s="163"/>
-      <c r="P28" s="163"/>
-      <c r="Q28" s="163"/>
-      <c r="R28" s="163"/>
-      <c r="S28" s="163"/>
-      <c r="T28" s="163"/>
-      <c r="U28" s="163"/>
-      <c r="V28" s="163"/>
-      <c r="W28" s="163"/>
-      <c r="X28" s="164"/>
-      <c r="Y28" s="166" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z28" s="167"/>
-      <c r="AA28" s="167"/>
-      <c r="AB28" s="167"/>
-      <c r="AC28" s="167"/>
-      <c r="AD28" s="167"/>
-      <c r="AE28" s="167"/>
-      <c r="AF28" s="167"/>
-      <c r="AG28" s="167"/>
-      <c r="AH28" s="167"/>
-      <c r="AI28" s="167"/>
-      <c r="AJ28" s="167"/>
-      <c r="AK28" s="168"/>
-    </row>
-    <row r="29" spans="3:37" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C29" s="74">
-        <v>22</v>
-      </c>
-      <c r="D29" s="190" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="191"/>
-      <c r="F29" s="192"/>
-      <c r="G29" s="190" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" s="191"/>
-      <c r="I29" s="191"/>
-      <c r="J29" s="191"/>
-      <c r="K29" s="192"/>
-      <c r="L29" s="162" t="s">
-        <v>70</v>
-      </c>
-      <c r="M29" s="164"/>
-      <c r="N29" s="162" t="s">
-        <v>99</v>
-      </c>
-      <c r="O29" s="163"/>
-      <c r="P29" s="163"/>
-      <c r="Q29" s="163"/>
-      <c r="R29" s="163"/>
-      <c r="S29" s="163"/>
-      <c r="T29" s="163"/>
-      <c r="U29" s="163"/>
-      <c r="V29" s="163"/>
-      <c r="W29" s="163"/>
-      <c r="X29" s="164"/>
-      <c r="Y29" s="166" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z29" s="167"/>
-      <c r="AA29" s="167"/>
-      <c r="AB29" s="167"/>
-      <c r="AC29" s="167"/>
-      <c r="AD29" s="167"/>
-      <c r="AE29" s="167"/>
-      <c r="AF29" s="167"/>
-      <c r="AG29" s="167"/>
-      <c r="AH29" s="167"/>
-      <c r="AI29" s="167"/>
-      <c r="AJ29" s="167"/>
-      <c r="AK29" s="168"/>
-    </row>
-    <row r="30" spans="3:37" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="74">
-        <v>23</v>
-      </c>
-      <c r="D30" s="193"/>
-      <c r="E30" s="194"/>
-      <c r="F30" s="195"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="194"/>
-      <c r="I30" s="194"/>
-      <c r="J30" s="194"/>
-      <c r="K30" s="195"/>
-      <c r="L30" s="162" t="s">
-        <v>69</v>
-      </c>
-      <c r="M30" s="164"/>
-      <c r="N30" s="162" t="s">
-        <v>99</v>
-      </c>
-      <c r="O30" s="163"/>
-      <c r="P30" s="163"/>
-      <c r="Q30" s="163"/>
-      <c r="R30" s="163"/>
-      <c r="S30" s="163"/>
-      <c r="T30" s="163"/>
-      <c r="U30" s="163"/>
-      <c r="V30" s="163"/>
-      <c r="W30" s="163"/>
-      <c r="X30" s="164"/>
-      <c r="Y30" s="166" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z30" s="167"/>
-      <c r="AA30" s="167"/>
-      <c r="AB30" s="167"/>
-      <c r="AC30" s="167"/>
-      <c r="AD30" s="167"/>
-      <c r="AE30" s="167"/>
-      <c r="AF30" s="167"/>
-      <c r="AG30" s="167"/>
-      <c r="AH30" s="167"/>
-      <c r="AI30" s="167"/>
-      <c r="AJ30" s="167"/>
-      <c r="AK30" s="168"/>
-    </row>
-    <row r="31" spans="3:37" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="74">
-        <v>24</v>
-      </c>
-      <c r="D31" s="193"/>
-      <c r="E31" s="194"/>
-      <c r="F31" s="195"/>
-      <c r="G31" s="193"/>
-      <c r="H31" s="194"/>
-      <c r="I31" s="194"/>
-      <c r="J31" s="194"/>
-      <c r="K31" s="195"/>
-      <c r="L31" s="162" t="s">
-        <v>73</v>
-      </c>
-      <c r="M31" s="164"/>
-      <c r="N31" s="162" t="s">
-        <v>100</v>
-      </c>
-      <c r="O31" s="163"/>
-      <c r="P31" s="163"/>
-      <c r="Q31" s="163"/>
-      <c r="R31" s="163"/>
-      <c r="S31" s="163"/>
-      <c r="T31" s="163"/>
-      <c r="U31" s="163"/>
-      <c r="V31" s="163"/>
-      <c r="W31" s="163"/>
-      <c r="X31" s="164"/>
-      <c r="Y31" s="200" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z31" s="201"/>
-      <c r="AA31" s="201"/>
-      <c r="AB31" s="201"/>
-      <c r="AC31" s="201"/>
-      <c r="AD31" s="201"/>
-      <c r="AE31" s="201"/>
-      <c r="AF31" s="201"/>
-      <c r="AG31" s="201"/>
-      <c r="AH31" s="201"/>
-      <c r="AI31" s="201"/>
-      <c r="AJ31" s="201"/>
-      <c r="AK31" s="202"/>
-    </row>
-    <row r="32" spans="3:37" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C32" s="74">
-        <v>25</v>
-      </c>
-      <c r="D32" s="193"/>
-      <c r="E32" s="194"/>
-      <c r="F32" s="195"/>
-      <c r="G32" s="193"/>
-      <c r="H32" s="194"/>
-      <c r="I32" s="194"/>
-      <c r="J32" s="194"/>
-      <c r="K32" s="195"/>
-      <c r="L32" s="162" t="s">
-        <v>70</v>
-      </c>
-      <c r="M32" s="164"/>
-      <c r="N32" s="162" t="s">
-        <v>101</v>
-      </c>
-      <c r="O32" s="163"/>
-      <c r="P32" s="163"/>
-      <c r="Q32" s="163"/>
-      <c r="R32" s="163"/>
-      <c r="S32" s="163"/>
-      <c r="T32" s="163"/>
-      <c r="U32" s="163"/>
-      <c r="V32" s="163"/>
-      <c r="W32" s="163"/>
-      <c r="X32" s="164"/>
-      <c r="Y32" s="166" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z32" s="167"/>
-      <c r="AA32" s="167"/>
-      <c r="AB32" s="167"/>
-      <c r="AC32" s="167"/>
-      <c r="AD32" s="167"/>
-      <c r="AE32" s="167"/>
-      <c r="AF32" s="167"/>
-      <c r="AG32" s="167"/>
-      <c r="AH32" s="167"/>
-      <c r="AI32" s="167"/>
-      <c r="AJ32" s="167"/>
-      <c r="AK32" s="168"/>
-    </row>
-    <row r="33" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C33" s="74">
-        <v>26</v>
-      </c>
-      <c r="D33" s="193"/>
-      <c r="E33" s="194"/>
-      <c r="F33" s="195"/>
-      <c r="G33" s="193"/>
-      <c r="H33" s="194"/>
-      <c r="I33" s="194"/>
-      <c r="J33" s="194"/>
-      <c r="K33" s="195"/>
-      <c r="L33" s="162" t="s">
-        <v>70</v>
-      </c>
-      <c r="M33" s="164"/>
-      <c r="N33" s="162" t="s">
-        <v>102</v>
-      </c>
-      <c r="O33" s="163"/>
-      <c r="P33" s="163"/>
-      <c r="Q33" s="163"/>
-      <c r="R33" s="163"/>
-      <c r="S33" s="163"/>
-      <c r="T33" s="163"/>
-      <c r="U33" s="163"/>
-      <c r="V33" s="163"/>
-      <c r="W33" s="163"/>
-      <c r="X33" s="164"/>
-      <c r="Y33" s="166" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z33" s="167"/>
-      <c r="AA33" s="167"/>
-      <c r="AB33" s="167"/>
-      <c r="AC33" s="167"/>
-      <c r="AD33" s="167"/>
-      <c r="AE33" s="167"/>
-      <c r="AF33" s="167"/>
-      <c r="AG33" s="167"/>
-      <c r="AH33" s="167"/>
-      <c r="AI33" s="167"/>
-      <c r="AJ33" s="167"/>
-      <c r="AK33" s="168"/>
-    </row>
-    <row r="34" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="74">
-        <v>27</v>
-      </c>
-      <c r="D34" s="190" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="191"/>
-      <c r="F34" s="192"/>
-      <c r="G34" s="190" t="s">
-        <v>51</v>
-      </c>
-      <c r="H34" s="191"/>
-      <c r="I34" s="191"/>
-      <c r="J34" s="191"/>
-      <c r="K34" s="192"/>
-      <c r="L34" s="162" t="s">
-        <v>70</v>
-      </c>
-      <c r="M34" s="164"/>
-      <c r="N34" s="162" t="s">
-        <v>103</v>
-      </c>
-      <c r="O34" s="163"/>
-      <c r="P34" s="163"/>
-      <c r="Q34" s="163"/>
-      <c r="R34" s="163"/>
-      <c r="S34" s="163"/>
-      <c r="T34" s="163"/>
-      <c r="U34" s="163"/>
-      <c r="V34" s="163"/>
-      <c r="W34" s="163"/>
-      <c r="X34" s="164"/>
-      <c r="Y34" s="166" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z34" s="167"/>
-      <c r="AA34" s="167"/>
-      <c r="AB34" s="167"/>
-      <c r="AC34" s="167"/>
-      <c r="AD34" s="167"/>
-      <c r="AE34" s="167"/>
-      <c r="AF34" s="167"/>
-      <c r="AG34" s="167"/>
-      <c r="AH34" s="167"/>
-      <c r="AI34" s="167"/>
-      <c r="AJ34" s="167"/>
-      <c r="AK34" s="168"/>
-    </row>
-    <row r="35" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C35" s="74">
-        <v>28</v>
-      </c>
-      <c r="D35" s="193"/>
-      <c r="E35" s="194"/>
-      <c r="F35" s="195"/>
-      <c r="G35" s="193"/>
-      <c r="H35" s="194"/>
-      <c r="I35" s="194"/>
-      <c r="J35" s="194"/>
-      <c r="K35" s="195"/>
-      <c r="L35" s="162" t="s">
-        <v>69</v>
-      </c>
-      <c r="M35" s="164"/>
-      <c r="N35" s="162" t="s">
-        <v>103</v>
-      </c>
-      <c r="O35" s="163"/>
-      <c r="P35" s="163"/>
-      <c r="Q35" s="163"/>
-      <c r="R35" s="163"/>
-      <c r="S35" s="163"/>
-      <c r="T35" s="163"/>
-      <c r="U35" s="163"/>
-      <c r="V35" s="163"/>
-      <c r="W35" s="163"/>
-      <c r="X35" s="164"/>
-      <c r="Y35" s="166" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z35" s="167"/>
-      <c r="AA35" s="167"/>
-      <c r="AB35" s="167"/>
-      <c r="AC35" s="167"/>
-      <c r="AD35" s="167"/>
-      <c r="AE35" s="167"/>
-      <c r="AF35" s="167"/>
-      <c r="AG35" s="167"/>
-      <c r="AH35" s="167"/>
-      <c r="AI35" s="167"/>
-      <c r="AJ35" s="167"/>
-      <c r="AK35" s="168"/>
-    </row>
-    <row r="36" spans="1:46" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C36" s="74">
-        <v>29</v>
-      </c>
-      <c r="D36" s="203"/>
-      <c r="E36" s="204"/>
-      <c r="F36" s="205"/>
-      <c r="G36" s="203"/>
-      <c r="H36" s="204"/>
-      <c r="I36" s="204"/>
-      <c r="J36" s="204"/>
-      <c r="K36" s="205"/>
-      <c r="L36" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="M36" s="82"/>
-      <c r="N36" s="162" t="s">
-        <v>104</v>
-      </c>
-      <c r="O36" s="163"/>
-      <c r="P36" s="163"/>
-      <c r="Q36" s="163"/>
-      <c r="R36" s="163"/>
-      <c r="S36" s="163"/>
-      <c r="T36" s="163"/>
-      <c r="U36" s="163"/>
-      <c r="V36" s="163"/>
-      <c r="W36" s="163"/>
-      <c r="X36" s="164"/>
-      <c r="Y36" s="166" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z36" s="167"/>
-      <c r="AA36" s="167"/>
-      <c r="AB36" s="167"/>
-      <c r="AC36" s="167"/>
-      <c r="AD36" s="167"/>
-      <c r="AE36" s="167"/>
-      <c r="AF36" s="167"/>
-      <c r="AG36" s="167"/>
-      <c r="AH36" s="167"/>
-      <c r="AI36" s="167"/>
-      <c r="AJ36" s="167"/>
-      <c r="AK36" s="168"/>
-    </row>
-    <row r="37" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16"/>
-      <c r="Y37" s="16"/>
-      <c r="Z37" s="16"/>
-      <c r="AA37" s="16"/>
-      <c r="AB37" s="16"/>
-      <c r="AC37" s="16"/>
-      <c r="AD37" s="16"/>
-      <c r="AE37" s="16"/>
-      <c r="AF37" s="16"/>
-      <c r="AG37" s="16"/>
-      <c r="AH37" s="16"/>
-      <c r="AI37" s="16"/>
-      <c r="AJ37" s="16"/>
-      <c r="AK37" s="16"/>
-      <c r="AL37" s="16"/>
-      <c r="AM37" s="16"/>
-      <c r="AN37" s="16"/>
-    </row>
-    <row r="38" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="16"/>
-      <c r="Z38" s="16"/>
-      <c r="AA38" s="16"/>
-      <c r="AB38" s="16"/>
-      <c r="AC38" s="16"/>
-      <c r="AD38" s="16"/>
-      <c r="AE38" s="16"/>
-      <c r="AF38" s="16"/>
-      <c r="AG38" s="16"/>
-      <c r="AH38" s="16"/>
-      <c r="AI38" s="16"/>
-      <c r="AJ38" s="16"/>
-      <c r="AK38" s="16"/>
-      <c r="AL38" s="16"/>
-      <c r="AM38" s="16"/>
-      <c r="AN38" s="16"/>
-    </row>
-    <row r="39" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="15"/>
-      <c r="Y39" s="15"/>
-      <c r="Z39" s="15"/>
-      <c r="AA39" s="15"/>
-      <c r="AB39" s="15"/>
-      <c r="AC39" s="15"/>
-      <c r="AD39" s="15"/>
-      <c r="AE39" s="15"/>
-      <c r="AF39" s="15"/>
-      <c r="AG39" s="15"/>
-      <c r="AH39" s="15"/>
-      <c r="AI39" s="15"/>
-      <c r="AJ39" s="15"/>
-      <c r="AK39" s="15"/>
-      <c r="AL39" s="15"/>
-      <c r="AM39" s="15"/>
-      <c r="AN39" s="15"/>
-      <c r="AO39" s="15"/>
-      <c r="AP39" s="15"/>
-      <c r="AQ39" s="15"/>
-      <c r="AR39" s="15"/>
-      <c r="AS39" s="15"/>
-      <c r="AT39" s="15"/>
-    </row>
-    <row r="40" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="15"/>
-      <c r="Y40" s="15"/>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="15"/>
-      <c r="AB40" s="15"/>
-      <c r="AC40" s="15"/>
-      <c r="AD40" s="15"/>
-      <c r="AE40" s="15"/>
-      <c r="AF40" s="15"/>
-      <c r="AG40" s="15"/>
-      <c r="AH40" s="15"/>
-      <c r="AI40" s="15"/>
-      <c r="AJ40" s="15"/>
-      <c r="AK40" s="15"/>
-      <c r="AL40" s="15"/>
-      <c r="AM40" s="15"/>
-      <c r="AN40" s="15"/>
-      <c r="AO40" s="15"/>
-      <c r="AP40" s="15"/>
-      <c r="AQ40" s="15"/>
-      <c r="AR40" s="15"/>
-      <c r="AS40" s="15"/>
-      <c r="AT40" s="15"/>
-    </row>
-    <row r="41" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="15"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="15"/>
-      <c r="U41" s="15"/>
-      <c r="V41" s="15"/>
-      <c r="W41" s="15"/>
-      <c r="X41" s="15"/>
-      <c r="Y41" s="15"/>
-      <c r="Z41" s="15"/>
-      <c r="AA41" s="15"/>
-      <c r="AB41" s="15"/>
-      <c r="AC41" s="15"/>
-      <c r="AD41" s="15"/>
-      <c r="AE41" s="15"/>
-      <c r="AF41" s="15"/>
-      <c r="AG41" s="15"/>
-      <c r="AH41" s="15"/>
-      <c r="AI41" s="15"/>
-      <c r="AJ41" s="15"/>
-      <c r="AK41" s="15"/>
-      <c r="AL41" s="15"/>
-      <c r="AM41" s="15"/>
-      <c r="AN41" s="15"/>
-      <c r="AO41" s="15"/>
-      <c r="AP41" s="15"/>
-      <c r="AQ41" s="15"/>
-      <c r="AR41" s="15"/>
-      <c r="AS41" s="15"/>
-      <c r="AT41" s="15"/>
-    </row>
-    <row r="42" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="15"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="15"/>
-      <c r="X42" s="15"/>
-      <c r="Y42" s="15"/>
-      <c r="Z42" s="15"/>
-      <c r="AA42" s="15"/>
-      <c r="AB42" s="15"/>
-      <c r="AC42" s="15"/>
-      <c r="AD42" s="15"/>
-      <c r="AE42" s="15"/>
-      <c r="AF42" s="15"/>
-      <c r="AG42" s="15"/>
-      <c r="AH42" s="15"/>
-      <c r="AI42" s="15"/>
-      <c r="AJ42" s="15"/>
-      <c r="AK42" s="15"/>
-      <c r="AL42" s="15"/>
-      <c r="AM42" s="15"/>
-      <c r="AN42" s="15"/>
-      <c r="AO42" s="15"/>
-      <c r="AP42" s="15"/>
-      <c r="AQ42" s="15"/>
-      <c r="AR42" s="15"/>
-      <c r="AS42" s="15"/>
-      <c r="AT42" s="15"/>
-    </row>
-    <row r="43" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15"/>
-      <c r="T43" s="15"/>
-      <c r="U43" s="15"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="15"/>
-      <c r="X43" s="15"/>
-      <c r="Y43" s="15"/>
-      <c r="Z43" s="15"/>
-      <c r="AA43" s="15"/>
-      <c r="AB43" s="15"/>
-      <c r="AC43" s="15"/>
-      <c r="AD43" s="15"/>
-      <c r="AE43" s="15"/>
-      <c r="AF43" s="15"/>
-      <c r="AG43" s="15"/>
-      <c r="AH43" s="15"/>
-      <c r="AI43" s="15"/>
-      <c r="AJ43" s="15"/>
-      <c r="AK43" s="15"/>
-      <c r="AL43" s="15"/>
-      <c r="AM43" s="15"/>
-      <c r="AN43" s="15"/>
-      <c r="AO43" s="15"/>
-      <c r="AP43" s="15"/>
-      <c r="AQ43" s="15"/>
-      <c r="AR43" s="15"/>
-      <c r="AS43" s="15"/>
-      <c r="AT43" s="15"/>
-    </row>
-    <row r="44" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="15"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="15"/>
-      <c r="X44" s="15"/>
-      <c r="Y44" s="15"/>
-      <c r="Z44" s="15"/>
-      <c r="AA44" s="15"/>
-      <c r="AB44" s="15"/>
-      <c r="AC44" s="15"/>
-      <c r="AD44" s="15"/>
-      <c r="AE44" s="15"/>
-      <c r="AF44" s="15"/>
-      <c r="AG44" s="15"/>
-      <c r="AH44" s="15"/>
-      <c r="AI44" s="15"/>
-      <c r="AJ44" s="15"/>
-      <c r="AK44" s="15"/>
-      <c r="AL44" s="15"/>
-      <c r="AM44" s="15"/>
-      <c r="AN44" s="15"/>
-      <c r="AO44" s="15"/>
-      <c r="AP44" s="15"/>
-      <c r="AQ44" s="15"/>
-      <c r="AR44" s="15"/>
-      <c r="AS44" s="15"/>
-      <c r="AT44" s="15"/>
-    </row>
-    <row r="45" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="15"/>
-      <c r="T45" s="15"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="15"/>
-      <c r="X45" s="15"/>
-      <c r="Y45" s="15"/>
-      <c r="Z45" s="15"/>
-      <c r="AA45" s="15"/>
-      <c r="AB45" s="15"/>
-      <c r="AC45" s="15"/>
-      <c r="AD45" s="15"/>
-      <c r="AE45" s="15"/>
-      <c r="AF45" s="15"/>
-      <c r="AG45" s="15"/>
-      <c r="AH45" s="15"/>
-      <c r="AI45" s="15"/>
-      <c r="AJ45" s="15"/>
-      <c r="AK45" s="15"/>
-      <c r="AL45" s="15"/>
-      <c r="AM45" s="15"/>
-      <c r="AN45" s="15"/>
-      <c r="AO45" s="15"/>
-      <c r="AP45" s="15"/>
-      <c r="AQ45" s="15"/>
-      <c r="AR45" s="15"/>
-      <c r="AS45" s="15"/>
-      <c r="AT45" s="15"/>
+      <c r="Z16" s="162"/>
+      <c r="AA16" s="162"/>
+      <c r="AB16" s="162"/>
+      <c r="AC16" s="162"/>
+      <c r="AD16" s="162"/>
+      <c r="AE16" s="162"/>
+      <c r="AF16" s="162"/>
+      <c r="AG16" s="162"/>
+      <c r="AH16" s="162"/>
+      <c r="AI16" s="162"/>
+      <c r="AJ16" s="162"/>
+      <c r="AK16" s="163"/>
+    </row>
+    <row r="17" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="16"/>
+      <c r="AJ17" s="16"/>
+      <c r="AK17" s="16"/>
+      <c r="AL17" s="16"/>
+      <c r="AM17" s="16"/>
+      <c r="AN17" s="16"/>
+    </row>
+    <row r="18" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="16"/>
+      <c r="AK18" s="16"/>
+      <c r="AL18" s="16"/>
+      <c r="AM18" s="16"/>
+      <c r="AN18" s="16"/>
+    </row>
+    <row r="19" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="15"/>
+      <c r="AJ19" s="15"/>
+      <c r="AK19" s="15"/>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="15"/>
+      <c r="AN19" s="15"/>
+      <c r="AO19" s="15"/>
+      <c r="AP19" s="15"/>
+      <c r="AQ19" s="15"/>
+      <c r="AR19" s="15"/>
+      <c r="AS19" s="15"/>
+      <c r="AT19" s="15"/>
+    </row>
+    <row r="20" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+      <c r="AH20" s="15"/>
+      <c r="AI20" s="15"/>
+      <c r="AJ20" s="15"/>
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="15"/>
+      <c r="AN20" s="15"/>
+      <c r="AO20" s="15"/>
+      <c r="AP20" s="15"/>
+      <c r="AQ20" s="15"/>
+      <c r="AR20" s="15"/>
+      <c r="AS20" s="15"/>
+      <c r="AT20" s="15"/>
+    </row>
+    <row r="21" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="15"/>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="15"/>
+      <c r="AI21" s="15"/>
+      <c r="AJ21" s="15"/>
+      <c r="AK21" s="15"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="15"/>
+      <c r="AN21" s="15"/>
+      <c r="AO21" s="15"/>
+      <c r="AP21" s="15"/>
+      <c r="AQ21" s="15"/>
+      <c r="AR21" s="15"/>
+      <c r="AS21" s="15"/>
+      <c r="AT21" s="15"/>
+    </row>
+    <row r="22" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
+      <c r="AH22" s="15"/>
+      <c r="AI22" s="15"/>
+      <c r="AJ22" s="15"/>
+      <c r="AK22" s="15"/>
+      <c r="AL22" s="15"/>
+      <c r="AM22" s="15"/>
+      <c r="AN22" s="15"/>
+      <c r="AO22" s="15"/>
+      <c r="AP22" s="15"/>
+      <c r="AQ22" s="15"/>
+      <c r="AR22" s="15"/>
+      <c r="AS22" s="15"/>
+      <c r="AT22" s="15"/>
+    </row>
+    <row r="23" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="15"/>
+      <c r="AI23" s="15"/>
+      <c r="AJ23" s="15"/>
+      <c r="AK23" s="15"/>
+      <c r="AL23" s="15"/>
+      <c r="AM23" s="15"/>
+      <c r="AN23" s="15"/>
+      <c r="AO23" s="15"/>
+      <c r="AP23" s="15"/>
+      <c r="AQ23" s="15"/>
+      <c r="AR23" s="15"/>
+      <c r="AS23" s="15"/>
+      <c r="AT23" s="15"/>
+    </row>
+    <row r="24" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="15"/>
+      <c r="AI24" s="15"/>
+      <c r="AJ24" s="15"/>
+      <c r="AK24" s="15"/>
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="15"/>
+      <c r="AN24" s="15"/>
+      <c r="AO24" s="15"/>
+      <c r="AP24" s="15"/>
+      <c r="AQ24" s="15"/>
+      <c r="AR24" s="15"/>
+      <c r="AS24" s="15"/>
+      <c r="AT24" s="15"/>
+    </row>
+    <row r="25" spans="1:46" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="15"/>
+      <c r="AI25" s="15"/>
+      <c r="AJ25" s="15"/>
+      <c r="AK25" s="15"/>
+      <c r="AL25" s="15"/>
+      <c r="AM25" s="15"/>
+      <c r="AN25" s="15"/>
+      <c r="AO25" s="15"/>
+      <c r="AP25" s="15"/>
+      <c r="AQ25" s="15"/>
+      <c r="AR25" s="15"/>
+      <c r="AS25" s="15"/>
+      <c r="AT25" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="115">
-    <mergeCell ref="Y21:AK21"/>
-    <mergeCell ref="N20:X20"/>
-    <mergeCell ref="Y31:AK31"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="Y24:AK24"/>
-    <mergeCell ref="Y25:AK25"/>
-    <mergeCell ref="Y26:AK26"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N30:X30"/>
-    <mergeCell ref="N32:X32"/>
-    <mergeCell ref="N33:X33"/>
-    <mergeCell ref="N34:X34"/>
-    <mergeCell ref="N35:X35"/>
+  <mergeCells count="50">
+    <mergeCell ref="D12:F16"/>
+    <mergeCell ref="G12:K16"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:X15"/>
+    <mergeCell ref="Y8:AK8"/>
+    <mergeCell ref="Y9:AK9"/>
+    <mergeCell ref="Y10:AK10"/>
+    <mergeCell ref="Y11:AK11"/>
     <mergeCell ref="N12:X12"/>
     <mergeCell ref="N13:X13"/>
     <mergeCell ref="N14:X14"/>
     <mergeCell ref="N16:X16"/>
-    <mergeCell ref="N17:X17"/>
-    <mergeCell ref="N26:X26"/>
-    <mergeCell ref="N27:X27"/>
-    <mergeCell ref="N28:X28"/>
-    <mergeCell ref="N29:X29"/>
-    <mergeCell ref="N36:X36"/>
-    <mergeCell ref="N31:X31"/>
-    <mergeCell ref="Y8:AK8"/>
-    <mergeCell ref="Y9:AK9"/>
-    <mergeCell ref="Y10:AK10"/>
-    <mergeCell ref="Y11:AK11"/>
-    <mergeCell ref="Y33:AK33"/>
-    <mergeCell ref="Y34:AK34"/>
-    <mergeCell ref="Y35:AK35"/>
-    <mergeCell ref="Y27:AK27"/>
-    <mergeCell ref="Y28:AK28"/>
-    <mergeCell ref="Y29:AK29"/>
-    <mergeCell ref="Y30:AK30"/>
-    <mergeCell ref="Y32:AK32"/>
-    <mergeCell ref="Y22:AK22"/>
-    <mergeCell ref="Y23:AK23"/>
-    <mergeCell ref="Y20:AK20"/>
-    <mergeCell ref="Y36:AK36"/>
-    <mergeCell ref="D34:F35"/>
-    <mergeCell ref="G34:K35"/>
-    <mergeCell ref="G27:K28"/>
-    <mergeCell ref="D29:F33"/>
-    <mergeCell ref="G29:K33"/>
-    <mergeCell ref="D27:F28"/>
-    <mergeCell ref="D12:F26"/>
-    <mergeCell ref="G12:K26"/>
-    <mergeCell ref="N18:X18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:X15"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N25:X25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N19:X19"/>
-    <mergeCell ref="N21:X21"/>
-    <mergeCell ref="N22:X22"/>
-    <mergeCell ref="N23:X23"/>
-    <mergeCell ref="N24:X24"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="O1:T3"/>
-    <mergeCell ref="U1:AC3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="Y16:AK16"/>
-    <mergeCell ref="Y17:AK17"/>
-    <mergeCell ref="Y18:AK18"/>
-    <mergeCell ref="Y19:AK19"/>
-    <mergeCell ref="N8:X8"/>
-    <mergeCell ref="N9:X9"/>
-    <mergeCell ref="N10:X10"/>
-    <mergeCell ref="N11:X11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="Y14:AK14"/>
+    <mergeCell ref="Y15:AK15"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="Y14:AK14"/>
-    <mergeCell ref="Y15:AK15"/>
+    <mergeCell ref="Y16:AK16"/>
+    <mergeCell ref="N8:X8"/>
+    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="N11:X11"/>
+    <mergeCell ref="Y12:AK12"/>
+    <mergeCell ref="Y13:AK13"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="U1:AC3"/>
     <mergeCell ref="D8:F11"/>
     <mergeCell ref="G8:K11"/>
     <mergeCell ref="AJ1:AL1"/>
@@ -8935,17 +7623,15 @@
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="Y12:AK12"/>
-    <mergeCell ref="Y13:AK13"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="D7:F7"/>
-    <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:T3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
